--- a/6_1_要件定義.xlsx
+++ b/6_1_要件定義.xlsx
@@ -5,7 +5,9 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="マトリクス表（機能要件）" sheetId="1" r:id="rId4"/>
+    <sheet name="マトリクス表（画面要件）" sheetId="2" r:id="rId5"/>
+    <sheet name="ユースケース図" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -260,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -294,6 +296,26 @@
     <font>
       <sz val="8"/>
       <color indexed="18"/>
+      <name val="Apple Braille Outline 6 Dot"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W6"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
   </fonts>
@@ -448,7 +470,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -518,20 +540,86 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,6 +651,2311 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1094740</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>94218</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1094739" y="944998"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="944998"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879340" y="1619884"/>
+          <a:ext cx="1488679" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879340" y="2294770"/>
+          <a:ext cx="1488679" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="3016924"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="3739078"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196968</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="4461232"/>
+          <a:ext cx="1488680" cy="496967"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>172719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="5136117"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="5811003"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="6533157"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>163631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>194508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="7255311"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="7930197"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146010</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879340" y="8605083"/>
+          <a:ext cx="1488679" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145018</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879339" y="9279969"/>
+          <a:ext cx="1488680" cy="496968"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1160780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160258</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7383779" y="944998"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="944998"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="1619884"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="2342038"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="3016924"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>150316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="3762712"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="4484866"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="5088850"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="5811004"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>124221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="6533157"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="7278945"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>163016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175498</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9888219" y="7953831"/>
+          <a:ext cx="1488680" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1132840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2605450" y="1163510"/>
+          <a:ext cx="2261190" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>116250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1128349</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>108599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2605450" y="1170925"/>
+          <a:ext cx="2256700" cy="669320"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>110030</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>130185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1118338</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>231946</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2599230" y="1162695"/>
+          <a:ext cx="2252908" cy="1266987"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>245146</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1128634</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2734346" y="1302357"/>
+          <a:ext cx="2128089" cy="1959427"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>372146</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1127925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2861346" y="1429357"/>
+          <a:ext cx="2000380" cy="2482906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>118855</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1125744</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2608055" y="1276612"/>
+          <a:ext cx="2251490" cy="3429625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112226</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1132373</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2601426" y="1189042"/>
+          <a:ext cx="2264748" cy="4121568"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129474</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1134554</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2618674" y="1172779"/>
+          <a:ext cx="2249681" cy="4860421"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>256474</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1126925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2745674" y="1299779"/>
+          <a:ext cx="2115052" cy="5375565"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257183</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1116597</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2746383" y="1211584"/>
+          <a:ext cx="2104015" cy="6258701"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2731140" y="1274436"/>
+          <a:ext cx="2134501" cy="6910899"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>132247</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>178806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1131780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68208</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2621447" y="1211316"/>
+          <a:ext cx="2244134" cy="7579888"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>148793</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>8607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1115234</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>105025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2637993" y="1274162"/>
+          <a:ext cx="2211042" cy="8252994"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>177448</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1158830</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>173354</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8889648" y="1205864"/>
+          <a:ext cx="981382" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>188115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1160411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8897300" y="1220625"/>
+          <a:ext cx="975312" cy="569919"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182618</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>186395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1153659</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8894818" y="1218905"/>
+          <a:ext cx="971042" cy="1320663"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>183244</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>185430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1153033</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8895444" y="1217940"/>
+          <a:ext cx="969790" cy="2000296"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>178747</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1157530</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8890947" y="1274741"/>
+          <a:ext cx="978784" cy="2665649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179055</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1157223</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>179755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8891255" y="1274908"/>
+          <a:ext cx="978168" cy="3433033"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164743</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>218798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1169252</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8876943" y="1251308"/>
+          <a:ext cx="1004510" cy="4028200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>318084</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1169150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>27926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9030284" y="1973474"/>
+          <a:ext cx="851067" cy="3980908"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>179205</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1169091</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51061</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8891405" y="1216279"/>
+          <a:ext cx="989887" cy="5460373"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164841</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238295</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>178315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877041" y="1216214"/>
+          <a:ext cx="1073455" cy="6286827"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167247</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1169031</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8879447" y="1298607"/>
+          <a:ext cx="1001785" cy="6815529"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1985,11 +4378,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" ht="28.3" customHeight="1">
+    <row r="20" ht="18.35" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" t="s" s="23">
-        <v>54</v>
-      </c>
+      <c r="B20" s="23"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1998,556 +4389,388 @@
     </row>
     <row r="21" ht="18.35" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s" s="9">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s" s="9">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s" s="11">
-        <v>7</v>
-      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" ht="24.3" customHeight="1">
+    <row r="22" ht="18.35" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s" s="9">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s" s="9">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s" s="9">
-        <v>60</v>
-      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="13"/>
       <c r="G22" s="24"/>
     </row>
     <row r="23" ht="18.35" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s" s="15">
-        <v>61</v>
-      </c>
-      <c r="D23" t="s" s="15">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s" s="15">
-        <v>63</v>
-      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="17"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" ht="24.3" customHeight="1">
+    <row r="24" ht="18.35" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="12">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="D24" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s" s="9">
-        <v>60</v>
-      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="13"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" ht="24.3" customHeight="1">
+    <row r="25" ht="18.35" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="14">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s" s="15">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s" s="15">
-        <v>58</v>
-      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="17"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" ht="24.3" customHeight="1">
+    <row r="26" ht="18.35" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="12">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s" s="9">
-        <v>68</v>
-      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="13"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" ht="24.3" customHeight="1">
+    <row r="27" ht="18.35" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="14">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s" s="15">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s" s="15">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s" s="15">
-        <v>70</v>
-      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" ht="18.35" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="12">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="E28" t="s" s="9">
-        <v>72</v>
-      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="13"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" ht="18.35" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="14">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s" s="15">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s" s="15">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s" s="15">
-        <v>74</v>
-      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="17"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" ht="36.3" customHeight="1">
+    <row r="30" ht="18.35" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="12">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s" s="9">
-        <v>74</v>
-      </c>
-      <c r="D30" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s" s="9">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s" s="9">
-        <v>36</v>
-      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" ht="18.35" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="14">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s" s="15">
-        <v>75</v>
-      </c>
-      <c r="D31" t="s" s="15">
-        <v>41</v>
-      </c>
-      <c r="E31" t="s" s="15">
-        <v>63</v>
-      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="17"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" ht="24.3" customHeight="1">
+    <row r="32" ht="18.35" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="12">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s" s="9">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s" s="9">
-        <v>48</v>
-      </c>
-      <c r="E32" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="F32" t="s" s="9">
-        <v>77</v>
-      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" ht="18.35" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="12">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s" s="15">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s" s="15">
-        <v>51</v>
-      </c>
-      <c r="E33" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="F33" t="s" s="15">
-        <v>70</v>
-      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
       <c r="G33" s="24"/>
     </row>
     <row r="34" ht="18.35" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" t="s" s="8">
-        <v>79</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="13"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" t="s" s="23">
-        <v>18</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" t="s" s="26">
-        <v>8</v>
-      </c>
-      <c r="E35" s="25"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="13"/>
       <c r="G35" s="24"/>
     </row>
     <row r="36" ht="18.35" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="24"/>
-      <c r="D36" t="s" s="26">
-        <v>12</v>
-      </c>
-      <c r="E36" s="25"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="26"/>
       <c r="F36" s="13"/>
       <c r="G36" s="24"/>
     </row>
     <row r="37" ht="18.35" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="24"/>
-      <c r="D37" t="s" s="26">
-        <v>15</v>
-      </c>
-      <c r="E37" s="25"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="13"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" ht="18.35" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="24"/>
-      <c r="D38" t="s" s="26">
-        <v>19</v>
-      </c>
-      <c r="E38" s="25"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="26"/>
       <c r="F38" s="13"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" ht="18.35" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="24"/>
-      <c r="D39" t="s" s="26">
-        <v>21</v>
-      </c>
-      <c r="E39" s="25"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="26"/>
       <c r="F39" s="13"/>
       <c r="G39" s="24"/>
     </row>
     <row r="40" ht="18.35" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="24"/>
-      <c r="D40" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="E40" s="25"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="26"/>
       <c r="F40" s="13"/>
       <c r="G40" s="24"/>
     </row>
     <row r="41" ht="18.35" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="24"/>
-      <c r="D41" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="E41" s="25"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="13"/>
       <c r="G41" s="24"/>
     </row>
     <row r="42" ht="18.35" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="24"/>
-      <c r="D42" t="s" s="26">
-        <v>32</v>
-      </c>
-      <c r="E42" s="25"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="26"/>
       <c r="F42" s="13"/>
       <c r="G42" s="24"/>
     </row>
     <row r="43" ht="18.35" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="24"/>
-      <c r="D43" t="s" s="26">
-        <v>34</v>
-      </c>
-      <c r="E43" s="25"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="26"/>
       <c r="F43" s="13"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" ht="18.35" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="24"/>
-      <c r="D44" t="s" s="26">
-        <v>37</v>
-      </c>
-      <c r="E44" s="25"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="13"/>
       <c r="G44" s="24"/>
     </row>
     <row r="45" ht="18.35" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="24"/>
-      <c r="D45" t="s" s="26">
-        <v>40</v>
-      </c>
-      <c r="E45" s="25"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="13"/>
       <c r="G45" s="24"/>
     </row>
     <row r="46" ht="18.35" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="24"/>
-      <c r="D46" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="E46" s="25"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="13"/>
       <c r="G46" s="24"/>
     </row>
     <row r="47" ht="18.35" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="24"/>
-      <c r="D47" t="s" s="26">
-        <v>47</v>
-      </c>
-      <c r="E47" s="25"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="26"/>
       <c r="F47" s="13"/>
       <c r="G47" s="24"/>
     </row>
     <row r="48" ht="18.35" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="26"/>
       <c r="F48" s="13"/>
       <c r="G48" s="24"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" t="s" s="23">
-        <v>25</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" t="s" s="26">
-        <v>8</v>
-      </c>
-      <c r="E49" s="25"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="13"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" ht="18.35" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="24"/>
-      <c r="D50" t="s" s="26">
-        <v>12</v>
-      </c>
-      <c r="E50" s="25"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="13"/>
       <c r="G50" s="24"/>
     </row>
     <row r="51" ht="18.35" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="24"/>
-      <c r="D51" t="s" s="26">
-        <v>23</v>
-      </c>
-      <c r="E51" s="25"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="13"/>
       <c r="G51" s="24"/>
     </row>
     <row r="52" ht="18.35" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="24"/>
-      <c r="D52" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="E52" s="25"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="26"/>
       <c r="F52" s="13"/>
       <c r="G52" s="24"/>
     </row>
     <row r="53" ht="18.35" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="24"/>
-      <c r="D53" t="s" s="26">
-        <v>30</v>
-      </c>
-      <c r="E53" s="25"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="13"/>
       <c r="G53" s="24"/>
     </row>
     <row r="54" ht="18.35" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="24"/>
-      <c r="D54" t="s" s="26">
-        <v>32</v>
-      </c>
-      <c r="E54" s="25"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="13"/>
       <c r="G54" s="24"/>
     </row>
     <row r="55" ht="18.35" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="24"/>
-      <c r="D55" t="s" s="26">
-        <v>34</v>
-      </c>
-      <c r="E55" s="25"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="26"/>
       <c r="F55" s="13"/>
       <c r="G55" s="24"/>
     </row>
     <row r="56" ht="18.35" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="24"/>
-      <c r="D56" t="s" s="26">
-        <v>37</v>
-      </c>
-      <c r="E56" s="25"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="13"/>
       <c r="G56" s="24"/>
     </row>
     <row r="57" ht="18.35" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="24"/>
-      <c r="D57" t="s" s="26">
-        <v>40</v>
-      </c>
-      <c r="E57" s="25"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="26"/>
       <c r="F57" s="13"/>
       <c r="G57" s="24"/>
     </row>
     <row r="58" ht="18.35" customHeight="1">
       <c r="A58" s="7"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="24"/>
-      <c r="D58" t="s" s="26">
-        <v>43</v>
-      </c>
-      <c r="E58" s="25"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="13"/>
       <c r="G58" s="24"/>
     </row>
     <row r="59" ht="18.35" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="24"/>
-      <c r="D59" t="s" s="26">
-        <v>47</v>
-      </c>
-      <c r="E59" s="25"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="26"/>
       <c r="F59" s="13"/>
       <c r="G59" s="24"/>
     </row>
     <row r="60" ht="18.35" customHeight="1">
       <c r="A60" s="7"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="13"/>
       <c r="G60" s="24"/>
     </row>
     <row r="61" ht="18.35" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
       <c r="F61" s="13"/>
       <c r="G61" s="24"/>
     </row>
     <row r="62" ht="18.35" customHeight="1">
       <c r="A62" s="7"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
       <c r="F62" s="13"/>
       <c r="G62" s="24"/>
     </row>
     <row r="63" ht="18.35" customHeight="1">
       <c r="A63" s="7"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="13"/>
       <c r="G63" s="24"/>
     </row>
@@ -2561,4 +4784,1431 @@
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="19.6016" style="31" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="19.6016" style="31" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="31" customWidth="1"/>
+    <col min="5" max="5" width="25.4062" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.3203" style="31" customWidth="1"/>
+    <col min="7" max="7" width="24.2891" style="31" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="18.55" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="28.5" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" ht="18.3" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s" s="9">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" ht="24.3" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" ht="18.3" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s" s="15">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" ht="24.3" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="9">
+        <v>60</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" ht="24.3" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="14">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s" s="15">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" ht="24.3" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="12">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" ht="24.3" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="14">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s" s="15">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s" s="15">
+        <v>70</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" ht="18.3" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="12">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s" s="9">
+        <v>72</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="14">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s" s="15">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s" s="15">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s" s="15">
+        <v>74</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" ht="36.3" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="12">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s" s="9">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s" s="15">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" ht="24.3" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="12">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s" s="9">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s" s="9">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" ht="18.3" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="12">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s" s="15">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s" s="15">
+        <v>70</v>
+      </c>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" ht="18.3" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" ht="18.3" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" ht="18.35" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" ht="18.35" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" ht="18.35" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" ht="18.35" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" ht="18.35" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" ht="18.35" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" ht="18.35" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="18.35" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" ht="18.35" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" ht="18.35" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" ht="18.35" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" ht="18.35" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" ht="18.35" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" ht="18.35" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" ht="18.35" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" ht="18.35" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" ht="18.35" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" ht="18.35" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" ht="18.35" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" ht="18.35" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" ht="18.35" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" ht="18.35" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" ht="18.35" customHeight="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" ht="18.35" customHeight="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" ht="18.35" customHeight="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" ht="18.35" customHeight="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" ht="18.35" customHeight="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" ht="18.35" customHeight="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" ht="18.35" customHeight="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" ht="18.35" customHeight="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" ht="18.35" customHeight="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" ht="18.35" customHeight="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" ht="18.35" customHeight="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" ht="18.35" customHeight="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" ht="18.35" customHeight="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" ht="18.35" customHeight="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" ht="18.35" customHeight="1">
+      <c r="A56" s="7"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" ht="18.35" customHeight="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" ht="18.35" customHeight="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" ht="18.35" customHeight="1">
+      <c r="A59" s="7"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" ht="18.35" customHeight="1">
+      <c r="A60" s="7"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" ht="18.35" customHeight="1">
+      <c r="A61" s="7"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" ht="18.35" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" ht="18.35" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:J52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="10" width="19.6016" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="19.6016" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" ht="18.5" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" ht="18.5" customHeight="1">
+      <c r="A3" s="32"/>
+      <c r="B3" t="s" s="39">
+        <v>79</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" ht="18.35" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" ht="18.35" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" t="s" s="46">
+        <v>8</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" t="s" s="47">
+        <v>25</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" t="s" s="47">
+        <v>8</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" ht="18.35" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" ht="18.35" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" ht="18.35" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" t="s" s="48">
+        <v>12</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="30"/>
+      <c r="I8" t="s" s="47">
+        <v>12</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" ht="18.35" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" ht="18.35" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" ht="18.35" customHeight="1">
+      <c r="A11" s="34"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" t="s" s="48">
+        <v>15</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="30"/>
+      <c r="I11" t="s" s="47">
+        <v>23</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" ht="18.35" customHeight="1">
+      <c r="A12" s="34"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" ht="18.35" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" ht="18.35" customHeight="1">
+      <c r="A14" s="34"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" t="s" s="48">
+        <v>19</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="30"/>
+      <c r="I14" t="s" s="47">
+        <v>26</v>
+      </c>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" ht="18.35" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" ht="18.35" customHeight="1">
+      <c r="A16" s="34"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" ht="18.35" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" t="s" s="48">
+        <v>21</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" t="s" s="47">
+        <v>30</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" ht="18.35" customHeight="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" ht="18.35" customHeight="1">
+      <c r="A19" s="34"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" ht="18.35" customHeight="1">
+      <c r="A20" s="34"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" t="s" s="48">
+        <v>26</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="30"/>
+      <c r="I20" t="s" s="47">
+        <v>32</v>
+      </c>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" ht="18.35" customHeight="1">
+      <c r="A21" s="34"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" ht="18.35" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" ht="18.35" customHeight="1">
+      <c r="A23" s="34"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" t="s" s="48">
+        <v>30</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="30"/>
+      <c r="I23" t="s" s="47">
+        <v>34</v>
+      </c>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" ht="18.35" customHeight="1">
+      <c r="A24" s="34"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" ht="18.35" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" ht="18.35" customHeight="1">
+      <c r="A26" s="34"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" t="s" s="48">
+        <v>32</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="30"/>
+      <c r="I26" t="s" s="47">
+        <v>37</v>
+      </c>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" ht="18.35" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="24"/>
+    </row>
+    <row r="28" ht="18.35" customHeight="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" ht="18.35" customHeight="1">
+      <c r="A29" s="34"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" t="s" s="48">
+        <v>34</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" t="s" s="47">
+        <v>40</v>
+      </c>
+      <c r="J29" s="24"/>
+    </row>
+    <row r="30" ht="18.35" customHeight="1">
+      <c r="A30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" ht="18.35" customHeight="1">
+      <c r="A31" s="34"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" ht="18.35" customHeight="1">
+      <c r="A32" s="34"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" t="s" s="48">
+        <v>37</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" t="s" s="47">
+        <v>43</v>
+      </c>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" ht="18.35" customHeight="1">
+      <c r="A33" s="34"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" ht="18.35" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" ht="18.35" customHeight="1">
+      <c r="A35" s="34"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" t="s" s="48">
+        <v>40</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" t="s" s="47">
+        <v>47</v>
+      </c>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" ht="18.35" customHeight="1">
+      <c r="A36" s="34"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" ht="18.35" customHeight="1">
+      <c r="A37" s="34"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" ht="18.35" customHeight="1">
+      <c r="A38" s="34"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" t="s" s="48">
+        <v>43</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" ht="18.35" customHeight="1">
+      <c r="A39" s="34"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" ht="18.35" customHeight="1">
+      <c r="A40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="24"/>
+    </row>
+    <row r="41" ht="18.35" customHeight="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" t="s" s="48">
+        <v>47</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" ht="18.35" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" ht="18.35" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" ht="18.35" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" ht="18.35" customHeight="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" ht="18.35" customHeight="1">
+      <c r="A46" s="34"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" ht="18.35" customHeight="1">
+      <c r="A47" s="34"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" ht="18.35" customHeight="1">
+      <c r="A48" s="34"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" ht="18.35" customHeight="1">
+      <c r="A49" s="34"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="24"/>
+    </row>
+    <row r="50" ht="18.35" customHeight="1">
+      <c r="A50" s="34"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="24"/>
+    </row>
+    <row r="51" ht="18.35" customHeight="1">
+      <c r="A51" s="34"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" ht="18.35" customHeight="1">
+      <c r="A52" s="34"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/6_1_要件定義.xlsx
+++ b/6_1_要件定義.xlsx
@@ -470,7 +470,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -615,10 +615,13 @@
     <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,8 +724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="944998"/>
-          <a:ext cx="1488680" cy="449700"/>
+          <a:off x="4879340" y="944998"/>
+          <a:ext cx="1488679" cy="449700"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -859,8 +862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="3016924"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="3016924"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -905,8 +908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="3739078"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="3739078"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -936,7 +939,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1145540</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>166092</xdr:rowOff>
+      <xdr:rowOff>166091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -951,8 +954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="4461232"/>
-          <a:ext cx="1488680" cy="496967"/>
+          <a:off x="4879340" y="4461231"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -997,8 +1000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="5136117"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="5136117"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1043,8 +1046,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="5811003"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="5811003"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1089,8 +1092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="6533157"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="6533157"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1135,8 +1138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="7255311"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="7255311"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1181,8 +1184,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="7930197"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="7930197"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1273,8 +1276,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879339" y="9279969"/>
-          <a:ext cx="1488680" cy="496968"/>
+          <a:off x="4879340" y="9279969"/>
+          <a:ext cx="1488679" cy="496968"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1301,16 +1304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1160780</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1196340</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145533</xdr:rowOff>
+      <xdr:rowOff>121899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>160258</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195818</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129142</xdr:rowOff>
+      <xdr:rowOff>105508</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1319,8 +1322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7383779" y="944998"/>
-          <a:ext cx="1488680" cy="449700"/>
+          <a:off x="8663940" y="921364"/>
+          <a:ext cx="1488679" cy="449700"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1347,16 +1350,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1166982</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145533</xdr:rowOff>
+      <xdr:rowOff>121899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166460</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129142</xdr:rowOff>
+      <xdr:rowOff>105508</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1365,468 +1368,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9888219" y="944998"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>121284</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="1619884"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>144303</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>127912</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="2342038"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120054</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>103663</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="3016924"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>150316</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="3762712"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>189726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>173335</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="4484866"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>94575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78184</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="5088850"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>117594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101203</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="5811004"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>140612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>124221</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="6533157"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>187265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>170874</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="7278945"/>
-          <a:ext cx="1488680" cy="449700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1176020</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>163016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175498</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>146625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9888219" y="7953831"/>
-          <a:ext cx="1488680" cy="449700"/>
+          <a:off x="11123782" y="921364"/>
+          <a:ext cx="1488679" cy="449700"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1866,7 +1409,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="線"/>
+        <xdr:cNvPr id="18" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1912,7 +1455,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="線"/>
+        <xdr:cNvPr id="19" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1952,13 +1495,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1118338</xdr:colOff>
+      <xdr:colOff>1118337</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>231946</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="線"/>
+        <xdr:cNvPr id="20" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2000,17 +1543,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1128634</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>131868</xdr:rowOff>
+      <xdr:rowOff>131869</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="線"/>
+        <xdr:cNvPr id="21" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2734346" y="1302357"/>
-          <a:ext cx="2128089" cy="1959427"/>
+          <a:ext cx="2128089" cy="1959428"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2050,7 +1593,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="線"/>
+        <xdr:cNvPr id="22" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2096,7 +1639,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="線"/>
+        <xdr:cNvPr id="23" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2142,7 +1685,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="線"/>
+        <xdr:cNvPr id="24" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2188,7 +1731,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="線"/>
+        <xdr:cNvPr id="25" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2234,7 +1777,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="線"/>
+        <xdr:cNvPr id="26" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2280,7 +1823,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="線"/>
+        <xdr:cNvPr id="27" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2316,23 +1859,23 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>241940</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>8881</xdr:rowOff>
+      <xdr:rowOff>8882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1131840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>161474</xdr:rowOff>
+      <xdr:rowOff>161473</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="線"/>
+        <xdr:cNvPr id="28" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2731140" y="1274436"/>
-          <a:ext cx="2134501" cy="6910899"/>
+          <a:off x="2731140" y="1274437"/>
+          <a:ext cx="2134500" cy="6910897"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2372,7 +1915,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="線"/>
+        <xdr:cNvPr id="29" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2406,7 +1949,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>148793</xdr:colOff>
+      <xdr:colOff>148794</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>8607</xdr:rowOff>
     </xdr:from>
@@ -2418,13 +1961,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="線"/>
+        <xdr:cNvPr id="30" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2637993" y="1274162"/>
-          <a:ext cx="2211042" cy="8252994"/>
+          <a:off x="2637994" y="1274162"/>
+          <a:ext cx="2211041" cy="8252994"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2451,26 +1994,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>177448</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162208</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>173354</xdr:rowOff>
+      <xdr:rowOff>157965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1158830</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1179150</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>173354</xdr:rowOff>
+      <xdr:rowOff>157965</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="線"/>
+        <xdr:cNvPr id="31" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8889648" y="1205864"/>
-          <a:ext cx="981382" cy="1"/>
+          <a:off x="6385208" y="1190475"/>
+          <a:ext cx="2261543" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2497,26 +2040,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>185100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158996</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>188115</xdr:rowOff>
+      <xdr:rowOff>183191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1160411</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1182362</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>58898</xdr:rowOff>
+      <xdr:rowOff>95756</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="線"/>
+        <xdr:cNvPr id="32" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8897300" y="1220625"/>
-          <a:ext cx="975312" cy="569919"/>
+        <a:xfrm flipV="1">
+          <a:off x="6381996" y="1215701"/>
+          <a:ext cx="2267967" cy="611701"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2543,26 +2086,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>182618</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98725</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>186395</xdr:rowOff>
+      <xdr:rowOff>227457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1153659</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108787</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1242633</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>194696</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="線"/>
+        <xdr:cNvPr id="33" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8894818" y="1218905"/>
-          <a:ext cx="971042" cy="1320663"/>
+        <a:xfrm flipV="1">
+          <a:off x="6321725" y="1259967"/>
+          <a:ext cx="2388509" cy="3462915"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2589,26 +2132,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>183244</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185430</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167708</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1153033</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88320</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1231545</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32671</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="線"/>
+        <xdr:cNvPr id="34" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8895444" y="1217940"/>
-          <a:ext cx="969790" cy="2000296"/>
+        <a:xfrm flipV="1">
+          <a:off x="6390708" y="1270824"/>
+          <a:ext cx="2308438" cy="3989168"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2635,26 +2178,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>178747</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>167835</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9186</xdr:rowOff>
+      <xdr:rowOff>4855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1157530</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>111339</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1231418</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9114</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="線"/>
+        <xdr:cNvPr id="35" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8890947" y="1274741"/>
-          <a:ext cx="978784" cy="2665649"/>
+        <a:xfrm flipV="1">
+          <a:off x="6390835" y="1270410"/>
+          <a:ext cx="2308184" cy="4665160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2681,26 +2224,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179055</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9353</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160345</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>226667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1157223</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179755</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1238908</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90355</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="線"/>
+        <xdr:cNvPr id="36" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8891255" y="1274908"/>
-          <a:ext cx="978168" cy="3433033"/>
+        <a:xfrm flipV="1">
+          <a:off x="6383345" y="1259177"/>
+          <a:ext cx="2323164" cy="5456769"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2727,26 +2270,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>164743</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>218798</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1169252</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>52187</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1231152</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>145218</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="線"/>
+        <xdr:cNvPr id="37" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8876943" y="1251308"/>
-          <a:ext cx="1004510" cy="4028200"/>
+        <a:xfrm flipV="1">
+          <a:off x="6391101" y="1299934"/>
+          <a:ext cx="2307652" cy="6170010"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2773,26 +2316,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>318084</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8784</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168183</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1169150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>27926</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1231071</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>75474</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="線"/>
+        <xdr:cNvPr id="38" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9030284" y="1973474"/>
-          <a:ext cx="851067" cy="3980908"/>
+        <a:xfrm flipV="1">
+          <a:off x="6391183" y="1269558"/>
+          <a:ext cx="2307489" cy="6829777"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2819,26 +2362,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179205</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>183769</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70348</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1169091</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>51061</xdr:rowOff>
+      <xdr:colOff>84305</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21995</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="線"/>
+        <xdr:cNvPr id="39" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8891405" y="1216279"/>
-          <a:ext cx="989887" cy="5460373"/>
+        <a:xfrm flipV="1">
+          <a:off x="6293348" y="1385808"/>
+          <a:ext cx="2503158" cy="7359183"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2865,26 +2408,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>164841</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>183704</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76816</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1238295</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>178315</xdr:rowOff>
+      <xdr:colOff>19941</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>73</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="線"/>
+        <xdr:cNvPr id="40" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8877041" y="1216214"/>
-          <a:ext cx="1073455" cy="6286827"/>
+        <a:xfrm flipV="1">
+          <a:off x="6299816" y="1269423"/>
+          <a:ext cx="2432326" cy="8152781"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2911,26 +2454,118 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>167247</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33052</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202209</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1169031</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90275</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1154282</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114421</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="線"/>
+        <xdr:cNvPr id="41" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10159009" y="1146931"/>
+          <a:ext cx="952074" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1166982</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>166460</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="楕円"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8879447" y="1298607"/>
-          <a:ext cx="1001785" cy="6815529"/>
+          <a:off x="11123782" y="1619884"/>
+          <a:ext cx="1488679" cy="449700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>211851</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>158860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1150949</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10168651" y="1191370"/>
+          <a:ext cx="939099" cy="577802"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5544,7 +5179,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
       <c r="I2" s="38"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="38"/>
     </row>
     <row r="3" ht="18.5" customHeight="1">
       <c r="A3" s="32"/>
@@ -5558,7 +5193,7 @@
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="42"/>
-      <c r="J3" s="41"/>
+      <c r="J3" s="42"/>
     </row>
     <row r="4" ht="18.35" customHeight="1">
       <c r="A4" s="34"/>
@@ -5570,7 +5205,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="30"/>
       <c r="I4" s="44"/>
-      <c r="J4" s="30"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" ht="18.35" customHeight="1">
       <c r="A5" s="34"/>
@@ -5583,14 +5218,14 @@
         <v>8</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" t="s" s="47">
+      <c r="G5" s="30"/>
+      <c r="H5" t="s" s="47">
         <v>25</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" t="s" s="47">
-        <v>8</v>
-      </c>
-      <c r="J5" s="30"/>
+      <c r="I5" s="48"/>
+      <c r="J5" t="s" s="47">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" ht="18.35" customHeight="1">
       <c r="A6" s="34"/>
@@ -5602,7 +5237,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="30"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="30"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" ht="18.35" customHeight="1">
       <c r="A7" s="34"/>
@@ -5614,23 +5249,23 @@
       <c r="G7" s="24"/>
       <c r="H7" s="30"/>
       <c r="I7" s="44"/>
-      <c r="J7" s="30"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" ht="18.35" customHeight="1">
       <c r="A8" s="34"/>
       <c r="B8" s="29"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" t="s" s="48">
+      <c r="E8" t="s" s="49">
         <v>12</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="30"/>
-      <c r="I8" t="s" s="47">
-        <v>12</v>
-      </c>
-      <c r="J8" s="30"/>
+      <c r="I8" s="48"/>
+      <c r="J8" t="s" s="50">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" ht="18.35" customHeight="1">
       <c r="A9" s="34"/>
@@ -5642,7 +5277,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="30"/>
       <c r="I9" s="44"/>
-      <c r="J9" s="30"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" ht="18.35" customHeight="1">
       <c r="A10" s="34"/>
@@ -5654,23 +5289,21 @@
       <c r="G10" s="24"/>
       <c r="H10" s="30"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="30"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" ht="18.35" customHeight="1">
       <c r="A11" s="34"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
-      <c r="E11" t="s" s="48">
+      <c r="E11" t="s" s="49">
         <v>15</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="30"/>
-      <c r="I11" t="s" s="47">
-        <v>23</v>
-      </c>
-      <c r="J11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" ht="18.35" customHeight="1">
       <c r="A12" s="34"/>
@@ -5682,7 +5315,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="30"/>
       <c r="I12" s="44"/>
-      <c r="J12" s="30"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" ht="18.35" customHeight="1">
       <c r="A13" s="34"/>
@@ -5694,23 +5327,21 @@
       <c r="G13" s="24"/>
       <c r="H13" s="30"/>
       <c r="I13" s="44"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" ht="18.35" customHeight="1">
       <c r="A14" s="34"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
-      <c r="E14" t="s" s="48">
+      <c r="E14" t="s" s="49">
         <v>19</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="30"/>
-      <c r="I14" t="s" s="47">
-        <v>26</v>
-      </c>
-      <c r="J14" s="30"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" ht="18.35" customHeight="1">
       <c r="A15" s="34"/>
@@ -5722,7 +5353,7 @@
       <c r="G15" s="24"/>
       <c r="H15" s="30"/>
       <c r="I15" s="44"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" ht="18.35" customHeight="1">
       <c r="A16" s="34"/>
@@ -5734,23 +5365,21 @@
       <c r="G16" s="24"/>
       <c r="H16" s="30"/>
       <c r="I16" s="44"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" ht="18.35" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
-      <c r="E17" t="s" s="48">
+      <c r="E17" t="s" s="49">
         <v>21</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" t="s" s="47">
-        <v>30</v>
-      </c>
-      <c r="J17" s="24"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" ht="18.35" customHeight="1">
       <c r="A18" s="34"/>
@@ -5761,8 +5390,8 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="24"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" ht="18.35" customHeight="1">
       <c r="A19" s="34"/>
@@ -5773,24 +5402,22 @@
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="30"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="24"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" ht="18.35" customHeight="1">
       <c r="A20" s="34"/>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
-      <c r="E20" t="s" s="48">
+      <c r="E20" t="s" s="49">
         <v>26</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="30"/>
-      <c r="I20" t="s" s="47">
-        <v>32</v>
-      </c>
-      <c r="J20" s="24"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" ht="18.35" customHeight="1">
       <c r="A21" s="34"/>
@@ -5801,8 +5428,8 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" ht="18.35" customHeight="1">
       <c r="A22" s="34"/>
@@ -5813,24 +5440,22 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="24"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" ht="18.35" customHeight="1">
       <c r="A23" s="34"/>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
-      <c r="E23" t="s" s="48">
+      <c r="E23" t="s" s="49">
         <v>30</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="30"/>
-      <c r="I23" t="s" s="47">
-        <v>34</v>
-      </c>
-      <c r="J23" s="24"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" ht="18.35" customHeight="1">
       <c r="A24" s="34"/>
@@ -5841,8 +5466,8 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="24"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" ht="18.35" customHeight="1">
       <c r="A25" s="34"/>
@@ -5853,24 +5478,22 @@
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" ht="18.35" customHeight="1">
       <c r="A26" s="34"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
-      <c r="E26" t="s" s="48">
+      <c r="E26" t="s" s="49">
         <v>32</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
       <c r="H26" s="30"/>
-      <c r="I26" t="s" s="47">
-        <v>37</v>
-      </c>
-      <c r="J26" s="24"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" ht="18.35" customHeight="1">
       <c r="A27" s="34"/>
@@ -5881,8 +5504,8 @@
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="24"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" ht="18.35" customHeight="1">
       <c r="A28" s="34"/>
@@ -5893,24 +5516,22 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="30"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="24"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" ht="18.35" customHeight="1">
       <c r="A29" s="34"/>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
-      <c r="E29" t="s" s="48">
+      <c r="E29" t="s" s="49">
         <v>34</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
-      <c r="I29" t="s" s="47">
-        <v>40</v>
-      </c>
-      <c r="J29" s="24"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" ht="18.35" customHeight="1">
       <c r="A30" s="34"/>
@@ -5921,8 +5542,8 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" ht="18.35" customHeight="1">
       <c r="A31" s="34"/>
@@ -5933,24 +5554,22 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="24"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" ht="18.35" customHeight="1">
       <c r="A32" s="34"/>
       <c r="B32" s="29"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
-      <c r="E32" t="s" s="48">
+      <c r="E32" t="s" s="49">
         <v>37</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
-      <c r="I32" t="s" s="47">
-        <v>43</v>
-      </c>
-      <c r="J32" s="24"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" ht="18.35" customHeight="1">
       <c r="A33" s="34"/>
@@ -5961,8 +5580,8 @@
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" ht="18.35" customHeight="1">
       <c r="A34" s="34"/>
@@ -5973,24 +5592,22 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="24"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
       <c r="A35" s="34"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" t="s" s="48">
+      <c r="E35" t="s" s="49">
         <v>40</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" t="s" s="47">
-        <v>47</v>
-      </c>
-      <c r="J35" s="24"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" ht="18.35" customHeight="1">
       <c r="A36" s="34"/>
@@ -6001,8 +5618,8 @@
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="24"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" ht="18.35" customHeight="1">
       <c r="A37" s="34"/>
@@ -6013,22 +5630,22 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="24"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" ht="18.35" customHeight="1">
       <c r="A38" s="34"/>
       <c r="B38" s="29"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
-      <c r="E38" t="s" s="48">
+      <c r="E38" t="s" s="49">
         <v>43</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="24"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" ht="18.35" customHeight="1">
       <c r="A39" s="34"/>
@@ -6039,8 +5656,8 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="24"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" ht="18.35" customHeight="1">
       <c r="A40" s="34"/>
@@ -6051,22 +5668,22 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="24"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" ht="18.35" customHeight="1">
       <c r="A41" s="34"/>
       <c r="B41" s="29"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" t="s" s="48">
+      <c r="E41" t="s" s="49">
         <v>47</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="24"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" ht="18.35" customHeight="1">
       <c r="A42" s="34"/>
@@ -6077,8 +5694,8 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="24"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" ht="18.35" customHeight="1">
       <c r="A43" s="34"/>
@@ -6089,8 +5706,8 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="24"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" ht="18.35" customHeight="1">
       <c r="A44" s="34"/>
@@ -6101,8 +5718,8 @@
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="24"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" ht="18.35" customHeight="1">
       <c r="A45" s="34"/>
@@ -6113,8 +5730,8 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="24"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" ht="18.35" customHeight="1">
       <c r="A46" s="34"/>
@@ -6125,8 +5742,8 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="24"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" ht="18.35" customHeight="1">
       <c r="A47" s="34"/>
@@ -6137,8 +5754,8 @@
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="24"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" ht="18.35" customHeight="1">
       <c r="A48" s="34"/>
@@ -6149,8 +5766,8 @@
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="24"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
       <c r="A49" s="34"/>
@@ -6161,8 +5778,8 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="24"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" ht="18.35" customHeight="1">
       <c r="A50" s="34"/>
@@ -6173,8 +5790,8 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="24"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" ht="18.35" customHeight="1">
       <c r="A51" s="34"/>
@@ -6185,8 +5802,8 @@
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
       <c r="H51" s="24"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="24"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" ht="18.35" customHeight="1">
       <c r="A52" s="34"/>
@@ -6197,8 +5814,8 @@
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
       <c r="H52" s="24"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="24"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/6_1_要件定義.xlsx
+++ b/6_1_要件定義.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>表1</t>
   </si>
@@ -253,6 +253,48 @@
   </si>
   <si>
     <t>ユースケース図</t>
+  </si>
+  <si>
+    <t>ログインする</t>
+  </si>
+  <si>
+    <t>ユーザー一覧を表示する</t>
+  </si>
+  <si>
+    <t>ログアウトする</t>
+  </si>
+  <si>
+    <t>カテゴリ管理する</t>
+  </si>
+  <si>
+    <t>新規登録する</t>
+  </si>
+  <si>
+    <t>退会する</t>
+  </si>
+  <si>
+    <t>収支情報を入力する</t>
+  </si>
+  <si>
+    <t>収支情報を編集する</t>
+  </si>
+  <si>
+    <t>収支情報を削除する</t>
+  </si>
+  <si>
+    <t>収支一覧を表示する</t>
+  </si>
+  <si>
+    <t>収支を計算する</t>
+  </si>
+  <si>
+    <t>目標を設定する</t>
+  </si>
+  <si>
+    <t>目標達成状況を判定する</t>
+  </si>
+  <si>
+    <t>収支グラフを表示する</t>
   </si>
 </sst>
 </file>
@@ -262,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -274,13 +316,13 @@
       <name val="ヒラギノ角ゴ ProN W3"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="15"/>
       <color indexed="8"/>
-      <name val="Apple Braille Outline 6 Dot"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="13"/>
+      <color indexed="8"/>
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
     <font>
@@ -290,7 +332,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="17"/>
+      <color indexed="16"/>
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
     <font>
@@ -299,11 +341,18 @@
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color indexed="19"/>
+      <name val="Apple Braille Outline 6 Dot"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
     </font>
     <font>
+      <b val="1"/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="ヒラギノ角ゴ ProN W6"/>
@@ -346,12 +395,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -363,6 +412,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -376,7 +447,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -385,7 +456,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -394,43 +465,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,28 +495,58 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,159 +556,168 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,12 +736,13 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff434343"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff2c481f"/>
       <rgbColor rgb="fff6f8f9"/>
       <rgbColor rgb="ff2a3243"/>
@@ -667,9 +763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>94218</xdr:colOff>
+      <xdr:colOff>94217</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129142</xdr:rowOff>
+      <xdr:rowOff>129143</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -679,7 +775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1094739" y="944998"/>
-          <a:ext cx="1488680" cy="449700"/>
+          <a:ext cx="1488679" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -712,10 +808,10 @@
       <xdr:rowOff>145533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>129142</xdr:rowOff>
+      <xdr:rowOff>129143</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -725,7 +821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4879340" y="944998"/>
-          <a:ext cx="1488679" cy="449700"/>
+          <a:ext cx="1488679" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -755,13 +851,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1145540</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>121284</xdr:rowOff>
+      <xdr:rowOff>121283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104893</xdr:rowOff>
+      <xdr:rowOff>104894</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -770,8 +866,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="1619884"/>
-          <a:ext cx="1488679" cy="449700"/>
+          <a:off x="4879340" y="1619883"/>
+          <a:ext cx="1488679" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -804,10 +900,10 @@
       <xdr:rowOff>97035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>127912</xdr:rowOff>
+      <xdr:rowOff>127913</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -817,7 +913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4879340" y="2294770"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:ext cx="1488679" cy="496969"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -850,10 +946,10 @@
       <xdr:rowOff>120054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>150931</xdr:rowOff>
+      <xdr:rowOff>150932</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -863,7 +959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4879340" y="3016924"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:ext cx="1488679" cy="496969"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -896,10 +992,10 @@
       <xdr:rowOff>143073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>173950</xdr:rowOff>
+      <xdr:rowOff>172044</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -909,7 +1005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4879340" y="3739078"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -939,13 +1035,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1145540</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>166091</xdr:rowOff>
+      <xdr:rowOff>166349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>196968</xdr:rowOff>
+      <xdr:rowOff>195320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -954,8 +1050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="4461231"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4879340" y="4465299"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -985,13 +1081,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1145540</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>141842</xdr:rowOff>
+      <xdr:rowOff>142358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>172719</xdr:rowOff>
+      <xdr:rowOff>152279</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1000,8 +1096,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="5136117"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4879340" y="5144253"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1029,15 +1125,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:colOff>1169810</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>117593</xdr:rowOff>
+      <xdr:rowOff>103712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:colOff>4188</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>148470</xdr:rowOff>
+      <xdr:rowOff>79345</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1046,8 +1142,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="5811003"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4903609" y="5827602"/>
+          <a:ext cx="1488680" cy="496969"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1075,15 +1171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:colOff>1177708</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>140612</xdr:rowOff>
+      <xdr:rowOff>26967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:colOff>12085</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>171489</xdr:rowOff>
+      <xdr:rowOff>108643</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1092,8 +1188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="6533157"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4911507" y="6510952"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1121,15 +1217,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:colOff>1169810</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>163631</xdr:rowOff>
+      <xdr:rowOff>89599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>194508</xdr:rowOff>
+      <xdr:colOff>4188</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>351615</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1138,8 +1234,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="7255311"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4903609" y="7223824"/>
+          <a:ext cx="1488680" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1167,15 +1263,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1145540</xdr:colOff>
+      <xdr:colOff>1190947</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>139382</xdr:rowOff>
+      <xdr:rowOff>19396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:colOff>25325</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>170259</xdr:rowOff>
+      <xdr:rowOff>130282</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1184,8 +1280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="7930197"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4924747" y="7973406"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1215,13 +1311,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1145540</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>115133</xdr:rowOff>
+      <xdr:rowOff>120242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>146010</xdr:rowOff>
+      <xdr:rowOff>147308</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1230,8 +1326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="8605083"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4879340" y="8695282"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1261,13 +1357,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1145540</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>90884</xdr:rowOff>
+      <xdr:rowOff>96380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>145018</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>121761</xdr:rowOff>
+      <xdr:rowOff>123446</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1276,8 +1372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4879340" y="9279969"/>
-          <a:ext cx="1488679" cy="496968"/>
+          <a:off x="4879340" y="9376270"/>
+          <a:ext cx="1488679" cy="496967"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1305,15 +1401,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1196340</xdr:colOff>
+      <xdr:colOff>1188958</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>121899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>195818</xdr:colOff>
+      <xdr:colOff>188436</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105508</xdr:rowOff>
+      <xdr:rowOff>105509</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1322,8 +1418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8663940" y="921364"/>
-          <a:ext cx="1488679" cy="449700"/>
+          <a:off x="8821658" y="921364"/>
+          <a:ext cx="1488679" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1351,15 +1447,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1166982</xdr:colOff>
+      <xdr:colOff>1159599</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>121899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>166460</xdr:colOff>
+      <xdr:colOff>159077</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105508</xdr:rowOff>
+      <xdr:rowOff>105509</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1368,8 +1464,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11123782" y="921364"/>
-          <a:ext cx="1488679" cy="449700"/>
+          <a:off x="11281499" y="921364"/>
+          <a:ext cx="1488679" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1399,13 +1495,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>116250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>131000</xdr:rowOff>
+      <xdr:rowOff>130999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1132840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>131000</xdr:rowOff>
+      <xdr:rowOff>130999</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1414,8 +1510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2605450" y="1163510"/>
-          <a:ext cx="2261190" cy="1"/>
+          <a:off x="2605450" y="1163509"/>
+          <a:ext cx="2261191" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1445,7 +1541,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>116250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138415</xdr:rowOff>
+      <xdr:rowOff>138414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -1460,8 +1556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2605450" y="1170925"/>
-          <a:ext cx="2256700" cy="669320"/>
+          <a:off x="2605450" y="1170924"/>
+          <a:ext cx="2256700" cy="669321"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1581,7 +1677,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>372146</xdr:colOff>
+      <xdr:colOff>372147</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>163802</xdr:rowOff>
     </xdr:from>
@@ -1598,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2861346" y="1429357"/>
-          <a:ext cx="2000380" cy="2482906"/>
+          <a:off x="2861347" y="1429357"/>
+          <a:ext cx="2000378" cy="2482906"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1635,7 +1731,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1125744</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>178051</xdr:rowOff>
+      <xdr:rowOff>174241</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1681,7 +1777,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1132373</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>83289</xdr:rowOff>
+      <xdr:rowOff>73764</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1725,9 +1821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1134554</xdr:colOff>
+      <xdr:colOff>1134553</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>106744</xdr:rowOff>
+      <xdr:rowOff>98490</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1737,7 +1833,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2618674" y="1172779"/>
-          <a:ext cx="2249681" cy="4860421"/>
+          <a:ext cx="2249680" cy="4860422"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1765,15 +1861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256474</xdr:colOff>
+      <xdr:colOff>256473</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>34224</xdr:rowOff>
+      <xdr:rowOff>34223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1126925</xdr:colOff>
+      <xdr:colOff>1126924</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>49753</xdr:rowOff>
+      <xdr:rowOff>65628</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1782,8 +1878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2745674" y="1299779"/>
-          <a:ext cx="2115052" cy="5375565"/>
+          <a:off x="2745673" y="1299778"/>
+          <a:ext cx="2115052" cy="5375566"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1811,15 +1907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257183</xdr:colOff>
+      <xdr:colOff>257182</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>179074</xdr:rowOff>
+      <xdr:rowOff>179073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1116597</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>145559</xdr:rowOff>
+      <xdr:rowOff>101109</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1828,8 +1924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2746383" y="1211584"/>
-          <a:ext cx="2104015" cy="6258701"/>
+          <a:off x="2746382" y="1211583"/>
+          <a:ext cx="2104016" cy="6258702"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1863,9 +1959,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1131840</xdr:colOff>
+      <xdr:colOff>1131839</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>161473</xdr:rowOff>
+      <xdr:rowOff>78288</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1905,13 +2001,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>132247</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>178806</xdr:rowOff>
+      <xdr:rowOff>178805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1131780</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>68208</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>216163</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1920,8 +2016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2621447" y="1211316"/>
-          <a:ext cx="2244134" cy="7579888"/>
+          <a:off x="2621447" y="1211315"/>
+          <a:ext cx="2244134" cy="7579889"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1955,9 +2051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1115234</xdr:colOff>
+      <xdr:colOff>1115233</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>105025</xdr:rowOff>
+      <xdr:rowOff>12315</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1967,7 +2063,191 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2637994" y="1274162"/>
-          <a:ext cx="2211041" cy="8252994"/>
+          <a:ext cx="2211040" cy="8252994"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1402317</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1171768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6380717" y="1190475"/>
+          <a:ext cx="2423752" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1403596</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>183191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1174980</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6381996" y="1215701"/>
+          <a:ext cx="2425685" cy="622885"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1404284</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>227457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1235250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148658</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6382684" y="1259967"/>
+          <a:ext cx="2485267" cy="3420687"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1407746</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1224162</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6386146" y="1270824"/>
+          <a:ext cx="2470717" cy="4071697"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1995,25 +2275,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>162208</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157965</xdr:rowOff>
+      <xdr:colOff>30436</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1179150</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157965</xdr:rowOff>
+      <xdr:colOff>1224036</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>98258</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="線"/>
+        <xdr:cNvPr id="35" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6385208" y="1190475"/>
-          <a:ext cx="2261543" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="6418536" y="1270410"/>
+          <a:ext cx="2438201" cy="4762559"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2041,25 +2321,71 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>158996</xdr:colOff>
+      <xdr:colOff>63996</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>183191</xdr:rowOff>
+      <xdr:rowOff>226667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1182362</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95756</xdr:rowOff>
+      <xdr:colOff>1231527</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>106231</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="線"/>
+        <xdr:cNvPr id="36" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6381996" y="1215701"/>
-          <a:ext cx="2267967" cy="611701"/>
+          <a:off x="6452096" y="1259177"/>
+          <a:ext cx="2412131" cy="5456770"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1408265</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>223420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1061617</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="線"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6386665" y="1255930"/>
+          <a:ext cx="2307653" cy="6170010"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2087,25 +2413,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>98725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>227457</xdr:rowOff>
+      <xdr:colOff>62970</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1242633</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>194696</xdr:rowOff>
+      <xdr:colOff>1125858</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37796</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="線"/>
+        <xdr:cNvPr id="38" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6321725" y="1259967"/>
-          <a:ext cx="2388509" cy="3462915"/>
+          <a:off x="6451070" y="1315063"/>
+          <a:ext cx="2307489" cy="6829779"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2132,26 +2458,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>167708</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1383698</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5269</xdr:rowOff>
+      <xdr:rowOff>120252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231545</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>32671</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76923</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131715</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="線"/>
+        <xdr:cNvPr id="39" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6390708" y="1270824"/>
-          <a:ext cx="2308438" cy="3989168"/>
+          <a:off x="6362098" y="1385807"/>
+          <a:ext cx="2592126" cy="7555899"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2178,246 +2504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>167835</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231418</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9114</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6390835" y="1270410"/>
-          <a:ext cx="2308184" cy="4665160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>160345</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>226667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1238908</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>90355</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6383345" y="1259177"/>
-          <a:ext cx="2323164" cy="5456769"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>168101</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>34379</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231152</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>145218</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6391101" y="1299934"/>
-          <a:ext cx="2307652" cy="6170010"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>168183</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231071</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>75474</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6391183" y="1269558"/>
-          <a:ext cx="2307489" cy="6829777"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>70348</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84305</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>21995</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6293348" y="1385808"/>
-          <a:ext cx="2503158" cy="7359183"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76816</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1341370</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19941</xdr:colOff>
+      <xdr:colOff>12557</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>73</xdr:rowOff>
+      <xdr:rowOff>108052</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2426,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6299816" y="1269423"/>
-          <a:ext cx="2432326" cy="8152781"/>
+          <a:off x="6319770" y="1269423"/>
+          <a:ext cx="2570088" cy="8353470"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2455,15 +2551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>202209</xdr:colOff>
+      <xdr:colOff>194827</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114421</xdr:rowOff>
+      <xdr:rowOff>115691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1154282</xdr:colOff>
+      <xdr:colOff>1146899</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>114421</xdr:rowOff>
+      <xdr:rowOff>115691</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2472,8 +2568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10159009" y="1146931"/>
-          <a:ext cx="952074" cy="1"/>
+          <a:off x="10316727" y="1148201"/>
+          <a:ext cx="952073" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2501,15 +2597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1166982</xdr:colOff>
+      <xdr:colOff>1159599</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>121284</xdr:rowOff>
+      <xdr:rowOff>121283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>166460</xdr:colOff>
+      <xdr:colOff>159077</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104893</xdr:rowOff>
+      <xdr:rowOff>104894</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2518,8 +2614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11123782" y="1619884"/>
-          <a:ext cx="1488679" cy="449700"/>
+          <a:off x="11281499" y="1619883"/>
+          <a:ext cx="1488679" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2547,13 +2643,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>211851</xdr:colOff>
+      <xdr:colOff>204470</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>158860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1150949</xdr:colOff>
+      <xdr:colOff>1143567</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>37526</xdr:rowOff>
     </xdr:to>
@@ -2564,8 +2660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10168651" y="1191370"/>
-          <a:ext cx="939099" cy="577802"/>
+          <a:off x="10326370" y="1191370"/>
+          <a:ext cx="939098" cy="577802"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2604,10 +2700,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -2784,11 +2880,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2797,7 +2896,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -2812,12 +2911,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -3072,12 +3171,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -3368,7 +3467,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -3646,21 +3745,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.6016" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6016" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.4062" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3203" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.2891" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.8125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.4219" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4219" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.2109" style="1" customWidth="1"/>
     <col min="8" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3668,746 +3765,746 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="18.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="5">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" ht="18.35" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s" s="8">
+      <c r="A4" s="9"/>
+      <c r="B4" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" t="s" s="11">
         <v>4</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G4" t="s" s="11">
+      <c r="G4" t="s" s="13">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="24.3" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12">
+      <c r="A5" s="9"/>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="10">
+      <c r="F5" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="18.35" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="14">
+      <c r="A6" s="9"/>
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" t="s" s="17">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="D6" t="s" s="17">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" t="s" s="17">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="16">
+      <c r="F6" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" ht="24.3" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12">
+      <c r="A7" s="9"/>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="F7" t="s" s="18">
+      <c r="F7" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="18.35" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14">
+      <c r="A8" s="9"/>
+      <c r="B8" s="16">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" t="s" s="17">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="F8" t="s" s="19">
+      <c r="F8" t="s" s="21">
         <v>18</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" ht="18.35" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12">
+      <c r="A9" s="9"/>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="F9" t="s" s="18">
+      <c r="F9" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="24.3" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="14">
+      <c r="A10" s="9"/>
+      <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" t="s" s="17">
         <v>23</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="D10" t="s" s="17">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="15">
+      <c r="E10" t="s" s="17">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="20">
+      <c r="F10" t="s" s="22">
         <v>25</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" ht="24.3" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12">
+      <c r="A11" s="9"/>
+      <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="F11" t="s" s="10">
+      <c r="F11" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G11" t="s" s="9">
+      <c r="G11" t="s" s="11">
         <v>29</v>
       </c>
     </row>
     <row r="12" ht="18.35" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="14">
+      <c r="A12" s="9"/>
+      <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" t="s" s="17">
         <v>31</v>
       </c>
-      <c r="E12" t="s" s="15">
+      <c r="E12" t="s" s="17">
         <v>28</v>
       </c>
-      <c r="F12" t="s" s="16">
+      <c r="F12" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" ht="18.35" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" t="s" s="11">
         <v>32</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="F13" t="s" s="10">
+      <c r="F13" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="24.3" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="14">
+      <c r="A14" s="9"/>
+      <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="15">
+      <c r="C14" t="s" s="17">
         <v>34</v>
       </c>
-      <c r="D14" t="s" s="15">
+      <c r="D14" t="s" s="17">
         <v>35</v>
       </c>
-      <c r="E14" t="s" s="15">
+      <c r="E14" t="s" s="17">
         <v>28</v>
       </c>
-      <c r="F14" t="s" s="16">
+      <c r="F14" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="G14" t="s" s="15">
+      <c r="G14" t="s" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.3" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12">
+      <c r="A15" s="9"/>
+      <c r="B15" s="14">
         <v>11</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" t="s" s="11">
         <v>37</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="F15" t="s" s="10">
+      <c r="F15" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G15" t="s" s="9">
+      <c r="G15" t="s" s="11">
         <v>39</v>
       </c>
     </row>
     <row r="16" ht="18.35" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="14">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16">
         <v>12</v>
       </c>
-      <c r="C16" t="s" s="15">
+      <c r="C16" t="s" s="17">
         <v>40</v>
       </c>
-      <c r="D16" t="s" s="15">
+      <c r="D16" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="E16" t="s" s="15">
+      <c r="E16" t="s" s="17">
         <v>42</v>
       </c>
-      <c r="F16" t="s" s="16">
+      <c r="F16" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" ht="24.3" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12">
+      <c r="A17" s="9"/>
+      <c r="B17" s="14">
         <v>13</v>
       </c>
-      <c r="C17" t="s" s="9">
+      <c r="C17" t="s" s="11">
         <v>43</v>
       </c>
-      <c r="D17" t="s" s="9">
+      <c r="D17" t="s" s="11">
         <v>44</v>
       </c>
-      <c r="E17" t="s" s="9">
+      <c r="E17" t="s" s="11">
         <v>45</v>
       </c>
-      <c r="F17" t="s" s="10">
+      <c r="F17" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="G17" t="s" s="9">
+      <c r="G17" t="s" s="11">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.3" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="14">
+      <c r="A18" s="9"/>
+      <c r="B18" s="16">
         <v>14</v>
       </c>
-      <c r="C18" t="s" s="15">
+      <c r="C18" t="s" s="17">
         <v>47</v>
       </c>
-      <c r="D18" t="s" s="15">
+      <c r="D18" t="s" s="17">
         <v>48</v>
       </c>
-      <c r="E18" t="s" s="15">
+      <c r="E18" t="s" s="17">
         <v>28</v>
       </c>
-      <c r="F18" t="s" s="16">
+      <c r="F18" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="G18" t="s" s="15">
+      <c r="G18" t="s" s="17">
         <v>49</v>
       </c>
     </row>
     <row r="19" ht="18.35" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="21">
+      <c r="A19" s="9"/>
+      <c r="B19" s="23">
         <v>15</v>
       </c>
-      <c r="C19" t="s" s="9">
+      <c r="C19" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="D19" t="s" s="9">
+      <c r="D19" t="s" s="11">
         <v>51</v>
       </c>
-      <c r="E19" t="s" s="9">
+      <c r="E19" t="s" s="11">
         <v>52</v>
       </c>
-      <c r="F19" t="s" s="22">
+      <c r="F19" t="s" s="24">
         <v>25</v>
       </c>
-      <c r="G19" t="s" s="9">
+      <c r="G19" t="s" s="11">
         <v>53</v>
       </c>
     </row>
     <row r="20" ht="18.35" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" ht="18.35" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" ht="18.35" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" ht="18.35" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" ht="18.35" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" ht="18.35" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" ht="18.35" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" ht="18.35" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" ht="18.35" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" ht="18.35" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" ht="18.35" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" ht="18.35" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" ht="18.35" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" ht="18.35" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" ht="18.35" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" ht="18.35" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" ht="18.35" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" ht="18.35" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" ht="18.35" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" ht="18.35" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" ht="18.35" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" ht="18.35" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" ht="18.35" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" ht="18.35" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="24"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" ht="18.35" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="24"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" ht="18.35" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="24"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" ht="18.35" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="24"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" ht="18.35" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="24"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" ht="18.35" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="24"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" ht="18.35" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="24"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" ht="18.35" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" ht="18.35" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="24"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" ht="18.35" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="24"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" ht="18.35" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" ht="18.35" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="24"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" ht="18.35" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="24"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" ht="18.35" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="24"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" ht="18.35" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="24"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" ht="18.35" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="24"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" ht="18.35" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" ht="18.35" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" ht="18.35" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4423,708 +4520,706 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.6016" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="31" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="31" customWidth="1"/>
-    <col min="5" max="5" width="25.4062" style="31" customWidth="1"/>
-    <col min="6" max="6" width="15.3203" style="31" customWidth="1"/>
-    <col min="7" max="7" width="24.2891" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="19.6016" style="31" customWidth="1"/>
+    <col min="1" max="1" width="19.6016" style="33" customWidth="1"/>
+    <col min="2" max="2" width="14.6016" style="33" customWidth="1"/>
+    <col min="3" max="3" width="19.6016" style="33" customWidth="1"/>
+    <col min="4" max="4" width="28.8125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="25.4219" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.4219" style="33" customWidth="1"/>
+    <col min="7" max="7" width="24.2109" style="33" customWidth="1"/>
+    <col min="8" max="16384" width="19.6016" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" ht="18.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" t="s" s="5">
+      <c r="A3" s="34"/>
+      <c r="B3" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" t="s" s="8">
+      <c r="A4" s="36"/>
+      <c r="B4" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="C4" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="E4" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="F4" t="s" s="11">
+      <c r="F4" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" ht="24.3" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="12">
+      <c r="A5" s="36"/>
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="9">
+      <c r="C5" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="14">
+      <c r="A6" s="36"/>
+      <c r="B6" s="16">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="15">
+      <c r="C6" t="s" s="17">
         <v>61</v>
       </c>
-      <c r="D6" t="s" s="15">
+      <c r="D6" t="s" s="17">
         <v>62</v>
       </c>
-      <c r="E6" t="s" s="15">
+      <c r="E6" t="s" s="17">
         <v>63</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" ht="24.3" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="12">
+      <c r="A7" s="36"/>
+      <c r="B7" s="14">
         <v>3</v>
       </c>
-      <c r="C7" t="s" s="9">
+      <c r="C7" t="s" s="11">
         <v>64</v>
       </c>
-      <c r="D7" t="s" s="9">
+      <c r="D7" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="9">
+      <c r="E7" t="s" s="11">
         <v>60</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" ht="24.3" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="14">
+      <c r="A8" s="36"/>
+      <c r="B8" s="16">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" t="s" s="17">
         <v>65</v>
       </c>
-      <c r="D8" t="s" s="15">
+      <c r="D8" t="s" s="17">
         <v>20</v>
       </c>
-      <c r="E8" t="s" s="15">
+      <c r="E8" t="s" s="17">
         <v>58</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" ht="24.3" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="12">
+      <c r="A9" s="36"/>
+      <c r="B9" s="14">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="9">
+      <c r="C9" t="s" s="11">
         <v>66</v>
       </c>
-      <c r="D9" t="s" s="9">
+      <c r="D9" t="s" s="11">
         <v>67</v>
       </c>
-      <c r="E9" t="s" s="9">
+      <c r="E9" t="s" s="11">
         <v>68</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" ht="24.3" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="14">
+      <c r="A10" s="36"/>
+      <c r="B10" s="16">
         <v>6</v>
       </c>
-      <c r="C10" t="s" s="15">
+      <c r="C10" t="s" s="17">
         <v>69</v>
       </c>
-      <c r="D10" t="s" s="15">
+      <c r="D10" t="s" s="17">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="15">
+      <c r="E10" t="s" s="17">
         <v>63</v>
       </c>
-      <c r="F10" t="s" s="15">
+      <c r="F10" t="s" s="17">
         <v>70</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="12">
+      <c r="A11" s="36"/>
+      <c r="B11" s="14">
         <v>7</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" t="s" s="11">
         <v>71</v>
       </c>
-      <c r="D11" t="s" s="9">
+      <c r="D11" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="E11" t="s" s="9">
+      <c r="E11" t="s" s="11">
         <v>72</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="14">
+      <c r="A12" s="36"/>
+      <c r="B12" s="16">
         <v>8</v>
       </c>
-      <c r="C12" t="s" s="15">
+      <c r="C12" t="s" s="17">
         <v>73</v>
       </c>
-      <c r="D12" t="s" s="15">
+      <c r="D12" t="s" s="17">
         <v>31</v>
       </c>
-      <c r="E12" t="s" s="15">
+      <c r="E12" t="s" s="17">
         <v>74</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" ht="36.3" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="12">
+      <c r="A13" s="36"/>
+      <c r="B13" s="14">
         <v>9</v>
       </c>
-      <c r="C13" t="s" s="9">
+      <c r="C13" t="s" s="11">
         <v>74</v>
       </c>
-      <c r="D13" t="s" s="9">
+      <c r="D13" t="s" s="11">
         <v>35</v>
       </c>
-      <c r="E13" t="s" s="9">
+      <c r="E13" t="s" s="11">
         <v>63</v>
       </c>
-      <c r="F13" t="s" s="9">
+      <c r="F13" t="s" s="11">
         <v>36</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="14">
+      <c r="A14" s="36"/>
+      <c r="B14" s="16">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="15">
+      <c r="C14" t="s" s="17">
         <v>75</v>
       </c>
-      <c r="D14" t="s" s="15">
+      <c r="D14" t="s" s="17">
         <v>41</v>
       </c>
-      <c r="E14" t="s" s="15">
+      <c r="E14" t="s" s="17">
         <v>63</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" ht="24.3" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="12">
+      <c r="A15" s="36"/>
+      <c r="B15" s="14">
         <v>11</v>
       </c>
-      <c r="C15" t="s" s="9">
+      <c r="C15" t="s" s="11">
         <v>76</v>
       </c>
-      <c r="D15" t="s" s="9">
+      <c r="D15" t="s" s="11">
         <v>48</v>
       </c>
-      <c r="E15" t="s" s="9">
+      <c r="E15" t="s" s="11">
         <v>72</v>
       </c>
-      <c r="F15" t="s" s="9">
+      <c r="F15" t="s" s="11">
         <v>77</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="12">
+      <c r="A16" s="36"/>
+      <c r="B16" s="14">
         <v>12</v>
       </c>
-      <c r="C16" t="s" s="15">
+      <c r="C16" t="s" s="17">
         <v>78</v>
       </c>
-      <c r="D16" t="s" s="15">
+      <c r="D16" t="s" s="17">
         <v>51</v>
       </c>
-      <c r="E16" t="s" s="15">
+      <c r="E16" t="s" s="17">
         <v>63</v>
       </c>
-      <c r="F16" t="s" s="15">
+      <c r="F16" t="s" s="17">
         <v>70</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" ht="18.35" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="24"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" ht="18.35" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" ht="18.35" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="24"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" ht="18.35" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" ht="18.35" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="24"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" ht="18.35" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="24"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" ht="18.35" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" ht="18.35" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" ht="18.35" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" ht="18.35" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" ht="18.35" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="24"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" ht="18.35" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="24"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" ht="18.35" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="24"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="26"/>
     </row>
     <row r="33" ht="18.35" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="24"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="34" ht="18.35" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="24"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="26"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="24"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" ht="18.35" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="24"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" ht="18.35" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="24"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" ht="18.35" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="24"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" ht="18.35" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="24"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" ht="18.35" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="24"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" ht="18.35" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="24"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" ht="18.35" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="24"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" ht="18.35" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="24"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" ht="18.35" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="24"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" ht="18.35" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="24"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" ht="18.35" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="24"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" ht="18.35" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="24"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" ht="18.35" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="24"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="24"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" ht="18.35" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="24"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" ht="18.35" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="24"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" ht="18.35" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="24"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" ht="18.35" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="24"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" ht="18.35" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="24"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" ht="18.35" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="24"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" ht="18.35" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="24"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" ht="18.35" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="24"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="26"/>
     </row>
     <row r="58" ht="18.35" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="24"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" ht="18.35" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="24"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" ht="18.35" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="24"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="26"/>
     </row>
     <row r="61" ht="18.35" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="24"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62" ht="18.35" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="24"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63" ht="18.35" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="24"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5143,683 +5238,1165 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J52"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="10" width="19.6016" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="19.6016" style="35" customWidth="1"/>
+    <col min="1" max="4" width="19.6016" style="37" customWidth="1"/>
+    <col min="5" max="5" width="22.2109" style="37" customWidth="1"/>
+    <col min="6" max="12" width="19.6016" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" t="s" s="39">
+      <c r="A3" s="34"/>
+      <c r="B3" t="s" s="41">
         <v>79</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" ht="18.35" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" ht="18.35" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" t="s" s="45">
+      <c r="A5" s="36"/>
+      <c r="B5" t="s" s="47">
         <v>18</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" t="s" s="46">
-        <v>8</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="30"/>
-      <c r="H5" t="s" s="47">
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" t="s" s="48">
+        <v>80</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="32"/>
+      <c r="H5" t="s" s="49">
         <v>25</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" t="s" s="47">
-        <v>23</v>
-      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" t="s" s="49">
+        <v>81</v>
+      </c>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" ht="18.35" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" ht="18.35" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" ht="18.35" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" t="s" s="49">
-        <v>12</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="48"/>
-      <c r="J8" t="s" s="50">
-        <v>50</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" t="s" s="51">
+        <v>82</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="50"/>
+      <c r="J8" t="s" s="52">
+        <v>83</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" ht="18.35" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" ht="18.35" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" ht="18.35" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" t="s" s="49">
-        <v>15</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="44"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" t="s" s="51">
+        <v>84</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" ht="18.35" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" ht="18.35" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" ht="18.35" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" t="s" s="49">
-        <v>19</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" ht="18.35" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" ht="18.35" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" ht="18.35" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" t="s" s="49">
-        <v>21</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-    </row>
-    <row r="18" ht="18.35" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" ht="18.5" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" t="s" s="51">
+        <v>85</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" ht="18.5" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" ht="18.35" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" ht="18.35" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" t="s" s="49">
-        <v>26</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" ht="18.35" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" ht="18.35" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" ht="18.35" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" t="s" s="49">
-        <v>30</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-    </row>
-    <row r="24" ht="18.35" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-    </row>
-    <row r="25" ht="18.35" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" ht="18.35" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" t="s" s="49">
-        <v>32</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-    </row>
-    <row r="27" ht="18.35" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-    </row>
-    <row r="28" ht="18.35" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-    </row>
-    <row r="29" ht="18.35" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" t="s" s="49">
-        <v>34</v>
-      </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" ht="18.35" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" ht="18.35" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-    </row>
-    <row r="32" ht="18.35" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" t="s" s="49">
-        <v>37</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-    </row>
-    <row r="33" ht="18.35" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" ht="18.35" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" t="s" s="51">
+        <v>86</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+    </row>
+    <row r="21" ht="18.5" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+    </row>
+    <row r="22" ht="18.5" customHeight="1">
+      <c r="A22" s="36"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+    </row>
+    <row r="23" ht="19.85" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" t="s" s="51">
+        <v>87</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+    </row>
+    <row r="24" ht="18.5" customHeight="1">
+      <c r="A24" s="36"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+    </row>
+    <row r="25" ht="16.6" customHeight="1">
+      <c r="A25" s="36"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+    </row>
+    <row r="26" ht="24.45" customHeight="1">
+      <c r="A26" s="36"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" t="s" s="51">
+        <v>88</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+    </row>
+    <row r="27" ht="18.8" customHeight="1">
+      <c r="A27" s="36"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+    </row>
+    <row r="28" ht="9.9" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+    </row>
+    <row r="29" ht="22.8" customHeight="1">
+      <c r="A29" s="36"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" t="s" s="51">
+        <v>89</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+    </row>
+    <row r="30" ht="18.5" customHeight="1">
+      <c r="A30" s="36"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+    </row>
+    <row r="31" ht="18.5" customHeight="1">
+      <c r="A31" s="36"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+    </row>
+    <row r="32" ht="33.3" customHeight="1">
+      <c r="A32" s="36"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" t="s" s="51">
+        <v>90</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="A33" s="36"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+    </row>
+    <row r="34" ht="12.05" customHeight="1">
+      <c r="A34" s="36"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" t="s" s="49">
-        <v>40</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" ht="18.35" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" ht="18.35" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-    </row>
-    <row r="38" ht="18.35" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" t="s" s="49">
-        <v>43</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" ht="18.35" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-    </row>
-    <row r="40" ht="18.35" customHeight="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" ht="18.35" customHeight="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" t="s" s="49">
-        <v>47</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" ht="18.35" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" ht="18.35" customHeight="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-    </row>
-    <row r="44" ht="18.35" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-    </row>
-    <row r="45" ht="18.35" customHeight="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-    </row>
-    <row r="46" ht="18.35" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-    </row>
-    <row r="47" ht="18.35" customHeight="1">
-      <c r="A47" s="34"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-    </row>
-    <row r="48" ht="18.35" customHeight="1">
-      <c r="A48" s="34"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" t="s" s="51">
+        <v>91</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" ht="18.5" customHeight="1">
+      <c r="A36" s="36"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" ht="18.5" customHeight="1">
+      <c r="A37" s="36"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" ht="18.5" customHeight="1">
+      <c r="A38" s="36"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" t="s" s="51">
+        <v>92</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" ht="18.5" customHeight="1">
+      <c r="A39" s="36"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+    </row>
+    <row r="40" ht="18.5" customHeight="1">
+      <c r="A40" s="36"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" ht="18.5" customHeight="1">
+      <c r="A41" s="36"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" t="s" s="51">
+        <v>93</v>
+      </c>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" ht="18.5" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" ht="18.5" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" ht="18.5" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" ht="18.5" customHeight="1">
+      <c r="A45" s="36"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" ht="18.5" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" ht="18.5" customHeight="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+    </row>
+    <row r="48" ht="18.5" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="34"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-    </row>
-    <row r="50" ht="18.35" customHeight="1">
-      <c r="A50" s="34"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-    </row>
-    <row r="51" ht="18.35" customHeight="1">
-      <c r="A51" s="34"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-    </row>
-    <row r="52" ht="18.35" customHeight="1">
-      <c r="A52" s="34"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+    </row>
+    <row r="50" ht="18.5" customHeight="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" ht="18.5" customHeight="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" ht="18.5" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+    </row>
+    <row r="53" ht="18.35" customHeight="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="32"/>
+    </row>
+    <row r="54" ht="18.35" customHeight="1">
+      <c r="A54" s="36"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="32"/>
+    </row>
+    <row r="55" ht="18.35" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" ht="18.35" customHeight="1">
+      <c r="A56" s="36"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="32"/>
+    </row>
+    <row r="57" ht="18.35" customHeight="1">
+      <c r="A57" s="36"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="32"/>
+    </row>
+    <row r="58" ht="18.35" customHeight="1">
+      <c r="A58" s="36"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="32"/>
+    </row>
+    <row r="59" ht="18.35" customHeight="1">
+      <c r="A59" s="36"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+    </row>
+    <row r="60" ht="18.35" customHeight="1">
+      <c r="A60" s="36"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+    </row>
+    <row r="61" ht="18.35" customHeight="1">
+      <c r="A61" s="36"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="32"/>
+    </row>
+    <row r="62" ht="18.35" customHeight="1">
+      <c r="A62" s="36"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" ht="18.35" customHeight="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+    </row>
+    <row r="64" ht="18.35" customHeight="1">
+      <c r="A64" s="36"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+    </row>
+    <row r="65" ht="18.35" customHeight="1">
+      <c r="A65" s="36"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" ht="18.35" customHeight="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+    </row>
+    <row r="67" ht="18.35" customHeight="1">
+      <c r="A67" s="36"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="32"/>
+    </row>
+    <row r="68" ht="18.35" customHeight="1">
+      <c r="A68" s="36"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+    </row>
+    <row r="69" ht="18.35" customHeight="1">
+      <c r="A69" s="36"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="32"/>
+    </row>
+    <row r="70" ht="18.35" customHeight="1">
+      <c r="A70" s="36"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="32"/>
+    </row>
+    <row r="71" ht="18.35" customHeight="1">
+      <c r="A71" s="36"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="53"/>
+      <c r="J71" s="53"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="32"/>
+    </row>
+    <row r="72" ht="18.35" customHeight="1">
+      <c r="A72" s="36"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="53"/>
+      <c r="J72" s="53"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="32"/>
+    </row>
+    <row r="73" ht="18.35" customHeight="1">
+      <c r="A73" s="36"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="53"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="32"/>
+    </row>
+    <row r="74" ht="18.35" customHeight="1">
+      <c r="A74" s="36"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="53"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+    </row>
+    <row r="75" ht="18.35" customHeight="1">
+      <c r="A75" s="36"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="53"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+    </row>
+    <row r="76" ht="18.35" customHeight="1">
+      <c r="A76" s="36"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="53"/>
+      <c r="J76" s="53"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="32"/>
+    </row>
+    <row r="77" ht="18.35" customHeight="1">
+      <c r="A77" s="36"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="53"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="32"/>
+    </row>
+    <row r="78" ht="18.35" customHeight="1">
+      <c r="A78" s="36"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="32"/>
+    </row>
+    <row r="79" ht="18.35" customHeight="1">
+      <c r="A79" s="36"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="53"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/6_1_要件定義.xlsx
+++ b/6_1_要件定義.xlsx
@@ -15,241 +15,241 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
+    <t>マトリクス表（機能要件）</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>機能名</t>
+  </si>
+  <si>
+    <t>機能詳細</t>
+  </si>
+  <si>
+    <t>関連データ</t>
+  </si>
+  <si>
+    <t>関連ユーザー</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>ユーザーIDとパスワードでシステムにログインする</t>
+  </si>
+  <si>
+    <t>ユーザー情報、ログイン履歴</t>
+  </si>
+  <si>
+    <t>管理者、利用者</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>システムからログアウトする</t>
+  </si>
+  <si>
+    <t>ログイン履歴</t>
+  </si>
+  <si>
+    <t>新規登録</t>
+  </si>
+  <si>
+    <t>新しいユーザーアカウントを作成する</t>
+  </si>
+  <si>
+    <t>ユーザー情報</t>
+  </si>
+  <si>
+    <t>利用者</t>
+  </si>
+  <si>
+    <t>パスワードリセット</t>
+  </si>
+  <si>
+    <t>パスワードをリセットする</t>
+  </si>
+  <si>
+    <t>退会</t>
+  </si>
+  <si>
+    <t>ユーザーアカウントを削除する</t>
+  </si>
+  <si>
+    <t>ユーザー一覧表示</t>
+  </si>
+  <si>
+    <t>登録されているユーザーの一覧を表示する</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>収支入力</t>
+  </si>
+  <si>
+    <t>収入または支出の情報を入力する</t>
+  </si>
+  <si>
+    <t>収支情報</t>
+  </si>
+  <si>
+    <t>カテゴリ、日付、金額、メモなど</t>
+  </si>
+  <si>
+    <t>収支編集</t>
+  </si>
+  <si>
+    <t>入力済みの収支情報を編集する</t>
+  </si>
+  <si>
+    <t>収支削除</t>
+  </si>
+  <si>
+    <t>入力済みの収支情報を削除する</t>
+  </si>
+  <si>
+    <t>収支一覧表示</t>
+  </si>
+  <si>
+    <t>収入と支出の一覧を表示する</t>
+  </si>
+  <si>
+    <t>月別、カテゴリ別などで絞り込み可能</t>
+  </si>
+  <si>
+    <t>収支計算</t>
+  </si>
+  <si>
+    <t>月ごとの収支を計算する</t>
+  </si>
+  <si>
+    <t>収入合計、支出合計、収支差額など</t>
+  </si>
+  <si>
+    <t>目標設定</t>
+  </si>
+  <si>
+    <t>月ごとの収支目標を設定する</t>
+  </si>
+  <si>
+    <t>目標情報</t>
+  </si>
+  <si>
+    <t>目標達成状況判定</t>
+  </si>
+  <si>
+    <t>目標の達成状況を判定し、表示する</t>
+  </si>
+  <si>
+    <t>目標情報、収支情報</t>
+  </si>
+  <si>
+    <t>達成率、達成状況（達成、未達成）など</t>
+  </si>
+  <si>
+    <t>収支グラフ表示</t>
+  </si>
+  <si>
+    <t>収支情報をグラフで表示する</t>
+  </si>
+  <si>
+    <t>棒グラフ、折れ線グラフ、円グラフなど</t>
+  </si>
+  <si>
+    <t>カテゴリ管理</t>
+  </si>
+  <si>
+    <t>収支のカテゴリを管理する</t>
+  </si>
+  <si>
+    <t>カテゴリ情報</t>
+  </si>
+  <si>
+    <t>カテゴリの追加、編集、削除</t>
+  </si>
+  <si>
+    <t>マトリクス表（画面要件）</t>
+  </si>
+  <si>
+    <t>画面名</t>
+  </si>
+  <si>
+    <t>画面説明</t>
+  </si>
+  <si>
+    <t>還移前画面</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>ユーザーIDとパスワードを入力してログインする</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ログアウト確認画面</t>
+  </si>
+  <si>
+    <t>ログアウトの確認を行う</t>
+  </si>
+  <si>
+    <t>メイン画面</t>
+  </si>
+  <si>
+    <t>新規登録画面</t>
+  </si>
+  <si>
+    <t>パスワードリセット画面</t>
+  </si>
+  <si>
+    <t>退会確認画面</t>
+  </si>
+  <si>
+    <t>ユーザーアカウント削除の確認を行う</t>
+  </si>
+  <si>
+    <t>設定画面</t>
+  </si>
+  <si>
+    <t>ユーザー一覧画面</t>
+  </si>
+  <si>
+    <t>管理者用</t>
+  </si>
+  <si>
+    <t>収支入力画面</t>
+  </si>
+  <si>
+    <t>メイン画面、収支一覧画面</t>
+  </si>
+  <si>
+    <t>収支編集画面</t>
+  </si>
+  <si>
+    <t>収支一覧画面</t>
+  </si>
+  <si>
+    <t>目標設定画面</t>
+  </si>
+  <si>
+    <t>収支グラフ表示画面</t>
+  </si>
+  <si>
+    <t>グラフの種類を選択可能</t>
+  </si>
+  <si>
+    <t>カテゴリ管理画面</t>
+  </si>
+  <si>
     <t>表1</t>
-  </si>
-  <si>
-    <t>マトリクス表（機能要件）</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>機能名</t>
-  </si>
-  <si>
-    <t>機能詳細</t>
-  </si>
-  <si>
-    <t>関連データ</t>
-  </si>
-  <si>
-    <t>関連ユーザー</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>ユーザーIDとパスワードでシステムにログインする</t>
-  </si>
-  <si>
-    <t>ユーザー情報、ログイン履歴</t>
-  </si>
-  <si>
-    <t>管理者、利用者</t>
-  </si>
-  <si>
-    <t>ログアウト</t>
-  </si>
-  <si>
-    <t>システムからログアウトする</t>
-  </si>
-  <si>
-    <t>ログイン履歴</t>
-  </si>
-  <si>
-    <t>新規登録</t>
-  </si>
-  <si>
-    <t>新しいユーザーアカウントを作成する</t>
-  </si>
-  <si>
-    <t>ユーザー情報</t>
-  </si>
-  <si>
-    <t>利用者</t>
-  </si>
-  <si>
-    <t>パスワードリセット</t>
-  </si>
-  <si>
-    <t>パスワードをリセットする</t>
-  </si>
-  <si>
-    <t>退会</t>
-  </si>
-  <si>
-    <t>ユーザーアカウントを削除する</t>
-  </si>
-  <si>
-    <t>ユーザー一覧表示</t>
-  </si>
-  <si>
-    <t>登録されているユーザーの一覧を表示する</t>
-  </si>
-  <si>
-    <t>管理者</t>
-  </si>
-  <si>
-    <t>収支入力</t>
-  </si>
-  <si>
-    <t>収入または支出の情報を入力する</t>
-  </si>
-  <si>
-    <t>収支情報</t>
-  </si>
-  <si>
-    <t>カテゴリ、日付、金額、メモなど</t>
-  </si>
-  <si>
-    <t>収支編集</t>
-  </si>
-  <si>
-    <t>入力済みの収支情報を編集する</t>
-  </si>
-  <si>
-    <t>収支削除</t>
-  </si>
-  <si>
-    <t>入力済みの収支情報を削除する</t>
-  </si>
-  <si>
-    <t>収支一覧表示</t>
-  </si>
-  <si>
-    <t>収入と支出の一覧を表示する</t>
-  </si>
-  <si>
-    <t>月別、カテゴリ別などで絞り込み可能</t>
-  </si>
-  <si>
-    <t>収支計算</t>
-  </si>
-  <si>
-    <t>月ごとの収支を計算する</t>
-  </si>
-  <si>
-    <t>収入合計、支出合計、収支差額など</t>
-  </si>
-  <si>
-    <t>目標設定</t>
-  </si>
-  <si>
-    <t>月ごとの収支目標を設定する</t>
-  </si>
-  <si>
-    <t>目標情報</t>
-  </si>
-  <si>
-    <t>目標達成状況判定</t>
-  </si>
-  <si>
-    <t>目標の達成状況を判定し、表示する</t>
-  </si>
-  <si>
-    <t>目標情報、収支情報</t>
-  </si>
-  <si>
-    <t>達成率、達成状況（達成、未達成）など</t>
-  </si>
-  <si>
-    <t>収支グラフ表示</t>
-  </si>
-  <si>
-    <t>収支情報をグラフで表示する</t>
-  </si>
-  <si>
-    <t>棒グラフ、折れ線グラフ、円グラフなど</t>
-  </si>
-  <si>
-    <t>カテゴリ管理</t>
-  </si>
-  <si>
-    <t>収支のカテゴリを管理する</t>
-  </si>
-  <si>
-    <t>カテゴリ情報</t>
-  </si>
-  <si>
-    <t>カテゴリの追加、編集、削除</t>
-  </si>
-  <si>
-    <t>マトリクス表（画面要件）</t>
-  </si>
-  <si>
-    <t>画面名</t>
-  </si>
-  <si>
-    <t>画面説明</t>
-  </si>
-  <si>
-    <t>還移前画面</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
-    <t>ユーザーIDとパスワードを入力してログインする</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ログアウト確認画面</t>
-  </si>
-  <si>
-    <t>ログアウトの確認を行う</t>
-  </si>
-  <si>
-    <t>メイン画面</t>
-  </si>
-  <si>
-    <t>新規登録画面</t>
-  </si>
-  <si>
-    <t>パスワードリセット画面</t>
-  </si>
-  <si>
-    <t>退会確認画面</t>
-  </si>
-  <si>
-    <t>ユーザーアカウント削除の確認を行う</t>
-  </si>
-  <si>
-    <t>設定画面</t>
-  </si>
-  <si>
-    <t>ユーザー一覧画面</t>
-  </si>
-  <si>
-    <t>管理者用</t>
-  </si>
-  <si>
-    <t>収支入力画面</t>
-  </si>
-  <si>
-    <t>メイン画面、収支一覧画面</t>
-  </si>
-  <si>
-    <t>収支編集画面</t>
-  </si>
-  <si>
-    <t>収支一覧画面</t>
-  </si>
-  <si>
-    <t>目標設定画面</t>
-  </si>
-  <si>
-    <t>収支グラフ表示画面</t>
-  </si>
-  <si>
-    <t>グラフの種類を選択可能</t>
-  </si>
-  <si>
-    <t>カテゴリ管理画面</t>
   </si>
   <si>
     <t>ユースケース図</t>
@@ -304,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -321,8 +321,23 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Apple Braille Outline 6 Dot"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color indexed="8"/>
+      <name val="Apple Braille Outline 6 Dot"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Apple Braille Outline 6 Dot"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="13"/>
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
     <font>
@@ -336,13 +351,8 @@
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="18"/>
-      <name val="Apple Braille Outline 6 Dot"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="19"/>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Apple Braille Outline 6 Dot"/>
     </font>
     <font>
@@ -383,24 +393,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -412,28 +422,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -447,28 +435,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -477,52 +450,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -550,173 +478,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,16 +768,16 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ff434343"/>
       <rgbColor rgb="ff2c481f"/>
       <rgbColor rgb="fff6f8f9"/>
       <rgbColor rgb="ff2a3243"/>
       <rgbColor rgb="ff133819"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3745,20 +3776,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.6016" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6016" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.8125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.4219" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.4219" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.2109" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="19.6016" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5391" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6016" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.4219" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4219" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.2734" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
@@ -3769,746 +3799,345 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="18.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="7">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="18.35" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="B2" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="7">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="24.3" customHeight="1">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" ht="18.35" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s" s="10">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="B4" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" ht="24.3" customHeight="1">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="D4" t="s" s="11">
+      <c r="B5" t="s" s="10">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" ht="18.35" customHeight="1">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="E4" t="s" s="11">
+      <c r="B6" t="s" s="14">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" ht="18.35" customHeight="1">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="F4" t="s" s="12">
+      <c r="B7" t="s" s="10">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="17">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" ht="24.3" customHeight="1">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="B8" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="14">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="19">
+        <v>24</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" ht="24.3" customHeight="1">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="24.3" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="11">
+      <c r="B9" t="s" s="10">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="18.35" customHeight="1">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="11">
+      <c r="B10" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" ht="18.35" customHeight="1">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="11">
+      <c r="B11" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" ht="24.3" customHeight="1">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="24.3" customHeight="1">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" ht="18.35" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s" s="17">
+      <c r="B13" t="s" s="10">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="18.35" customHeight="1">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="17">
+      <c r="B14" t="s" s="14">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="14">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" ht="24.3" customHeight="1">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="17">
+      <c r="B15" t="s" s="10">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s" s="10">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="24.3" customHeight="1">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="F6" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" ht="24.3" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s" s="11">
+      <c r="B16" t="s" s="14">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="14">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s" s="14">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="18.35" customHeight="1">
+      <c r="A17" s="20">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" ht="18.35" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="16">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" ht="18.35" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="24.3" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s" s="17">
+      <c r="B17" t="s" s="10">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s" s="10">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s" s="10">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="E10" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s" s="22">
-        <v>25</v>
-      </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" ht="24.3" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="18.35" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="16">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" ht="18.35" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="14">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" ht="24.3" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="16">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s" s="17">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="F14" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s" s="17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="24.3" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="14">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s" s="11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" ht="18.35" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="16">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s" s="17">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s" s="17">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" ht="24.3" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="14">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s" s="11">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s" s="11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" ht="24.3" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="16">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s" s="17">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s" s="17">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s" s="17">
-        <v>49</v>
-      </c>
+      <c r="F17" t="s" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="18.35" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" ht="18.35" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="23">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s" s="11">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s" s="11">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s" s="24">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s" s="11">
-        <v>53</v>
-      </c>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" ht="18.35" customHeight="1">
-      <c r="A20" s="9"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" ht="18.35" customHeight="1">
-      <c r="A21" s="9"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" ht="18.35" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" ht="18.35" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" ht="18.35" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" ht="18.35" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" ht="18.35" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" ht="18.35" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" ht="18.35" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" ht="18.35" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" ht="18.35" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" ht="18.35" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" ht="18.35" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" ht="18.35" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" ht="18.35" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" ht="18.35" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" ht="18.35" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" ht="18.35" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" ht="18.35" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" ht="18.35" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" ht="18.35" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" ht="18.35" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" ht="18.35" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" ht="18.35" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" ht="18.35" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" ht="18.35" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="26"/>
-    </row>
-    <row r="47" ht="18.35" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" ht="18.35" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" ht="18.35" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" ht="18.35" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" ht="18.35" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" ht="18.35" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="26"/>
-    </row>
-    <row r="54" ht="18.35" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" ht="18.35" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" ht="18.35" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" ht="18.35" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" ht="18.35" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="26"/>
-    </row>
-    <row r="59" ht="18.35" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="26"/>
-    </row>
-    <row r="60" ht="18.35" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="26"/>
-    </row>
-    <row r="61" ht="18.35" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" ht="18.35" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" ht="18.35" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -4520,710 +4149,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.6016" style="33" customWidth="1"/>
-    <col min="2" max="2" width="14.6016" style="33" customWidth="1"/>
-    <col min="3" max="3" width="19.6016" style="33" customWidth="1"/>
-    <col min="4" max="4" width="28.8125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="25.4219" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.4219" style="33" customWidth="1"/>
-    <col min="7" max="7" width="24.2109" style="33" customWidth="1"/>
-    <col min="8" max="16384" width="19.6016" style="33" customWidth="1"/>
+    <col min="1" max="1" width="10.7188" style="28" customWidth="1"/>
+    <col min="2" max="2" width="19.6016" style="28" customWidth="1"/>
+    <col min="3" max="3" width="28.8125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="25.4219" style="28" customWidth="1"/>
+    <col min="5" max="5" width="29.5547" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
+      <c r="A1" t="s" s="29">
+        <v>53</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" ht="18.55" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" t="s" s="7">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="18.3" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="6">
         <v>54</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="35"/>
+      <c r="C2" t="s" s="6">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s" s="6">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="24.3" customHeight="1">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s" s="10">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" ht="18.3" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" t="s" s="10">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="11">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s" s="11">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s" s="11">
+      <c r="B4" t="s" s="14">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s" s="14">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="24.3" customHeight="1">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="24.3" customHeight="1">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="14">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="14">
         <v>57</v>
       </c>
-      <c r="F4" t="s" s="13">
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="24.3" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>67</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="24.3" customHeight="1">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s" s="14">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s" s="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="18.3" customHeight="1">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" ht="24.3" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s" s="11">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" ht="18.3" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="16">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s" s="17">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s" s="17">
+      <c r="B9" t="s" s="10">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s" s="10">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" ht="18.3" customHeight="1">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s" s="14">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s" s="14">
+        <v>73</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="36.3" customHeight="1">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="E6" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" ht="24.3" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="14">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s" s="11">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="11">
-        <v>60</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" ht="24.3" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="16">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s" s="17">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s" s="17">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s" s="17">
-        <v>58</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" ht="24.3" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="14">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s" s="11">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s" s="11">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" ht="24.3" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s" s="17">
+      <c r="E11" t="s" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="18.3" customHeight="1">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="14">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s" s="14">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="24.3" customHeight="1">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s" s="10">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" ht="18.3" customHeight="1">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s" s="14">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s" s="14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s" s="14">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s" s="14">
         <v>69</v>
       </c>
-      <c r="D10" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s" s="17">
-        <v>70</v>
-      </c>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" ht="18.3" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="14">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s" s="11">
-        <v>71</v>
-      </c>
-      <c r="D11" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" ht="18.3" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="16">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s" s="17">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s" s="17">
-        <v>74</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" ht="36.3" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="14">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s" s="11">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="16">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s" s="17">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" ht="24.3" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="14">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s" s="11">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s" s="11">
-        <v>72</v>
-      </c>
-      <c r="F15" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="G15" s="32"/>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="14">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s" s="17">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s" s="17">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s" s="17">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s" s="17">
-        <v>70</v>
-      </c>
-      <c r="G16" s="32"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="36"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" ht="18.3" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" ht="18.3" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" ht="18.35" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" ht="18.35" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" ht="18.35" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" ht="18.35" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" ht="18.35" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="26"/>
-    </row>
-    <row r="25" ht="18.35" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="26"/>
-    </row>
-    <row r="26" ht="18.35" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="26"/>
-    </row>
-    <row r="27" ht="18.35" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="26"/>
-    </row>
-    <row r="28" ht="18.35" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="26"/>
-    </row>
-    <row r="29" ht="18.35" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" ht="18.35" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="26"/>
-    </row>
-    <row r="31" ht="18.35" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" ht="18.35" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" ht="18.35" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="26"/>
-    </row>
-    <row r="34" ht="18.35" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="26"/>
-    </row>
-    <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" ht="18.35" customHeight="1">
-      <c r="A36" s="9"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" ht="18.35" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" ht="18.35" customHeight="1">
-      <c r="A38" s="9"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" ht="18.35" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" ht="18.35" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="26"/>
-    </row>
-    <row r="41" ht="18.35" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="26"/>
-    </row>
-    <row r="42" ht="18.35" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="26"/>
-    </row>
-    <row r="43" ht="18.35" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="26"/>
-    </row>
-    <row r="44" ht="18.35" customHeight="1">
-      <c r="A44" s="9"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="26"/>
-    </row>
-    <row r="45" ht="18.35" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" ht="18.35" customHeight="1">
-      <c r="A46" s="9"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="26"/>
-    </row>
-    <row r="47" ht="18.35" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="26"/>
-    </row>
-    <row r="48" ht="18.35" customHeight="1">
-      <c r="A48" s="9"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" ht="18.35" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="26"/>
-    </row>
-    <row r="51" ht="18.35" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="26"/>
-    </row>
-    <row r="52" ht="18.35" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="26"/>
-    </row>
-    <row r="53" ht="18.35" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="26"/>
-    </row>
-    <row r="54" ht="18.35" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="26"/>
-    </row>
-    <row r="55" ht="18.35" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="26"/>
-    </row>
-    <row r="56" ht="18.35" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="26"/>
-    </row>
-    <row r="57" ht="18.35" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="26"/>
-    </row>
-    <row r="58" ht="18.35" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="26"/>
-    </row>
-    <row r="59" ht="18.35" customHeight="1">
-      <c r="A59" s="9"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="26"/>
-    </row>
-    <row r="60" ht="18.35" customHeight="1">
-      <c r="A60" s="9"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="26"/>
-    </row>
-    <row r="61" ht="18.35" customHeight="1">
-      <c r="A61" s="9"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="26"/>
-    </row>
-    <row r="62" ht="18.35" customHeight="1">
-      <c r="A62" s="9"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="26"/>
-    </row>
-    <row r="63" ht="18.35" customHeight="1">
-      <c r="A63" s="9"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -5244,49 +4421,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="19.6016" style="37" customWidth="1"/>
-    <col min="5" max="5" width="22.2109" style="37" customWidth="1"/>
-    <col min="6" max="12" width="19.6016" style="37" customWidth="1"/>
-    <col min="13" max="16384" width="19.6016" style="37" customWidth="1"/>
+    <col min="1" max="4" width="19.6016" style="32" customWidth="1"/>
+    <col min="5" max="5" width="22.2109" style="32" customWidth="1"/>
+    <col min="6" max="12" width="19.6016" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="A1" t="s" s="33">
+        <v>78</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" t="s" s="41">
+      <c r="A3" s="39"/>
+      <c r="B3" t="s" s="40">
         <v>79</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="42"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
@@ -5297,1102 +4474,1102 @@
       <c r="L3" s="44"/>
     </row>
     <row r="4" ht="18.35" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" ht="18.35" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" t="s" s="47">
-        <v>18</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" t="s" s="48">
+      <c r="A5" s="45"/>
+      <c r="B5" t="s" s="49">
+        <v>17</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" t="s" s="50">
         <v>80</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="32"/>
-      <c r="H5" t="s" s="49">
-        <v>25</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" t="s" s="49">
+      <c r="F5" s="23"/>
+      <c r="G5" s="31"/>
+      <c r="H5" t="s" s="51">
+        <v>24</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" t="s" s="51">
         <v>81</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" ht="18.35" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" ht="18.35" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" ht="18.35" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" t="s" s="51">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" t="s" s="53">
         <v>82</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="50"/>
-      <c r="J8" t="s" s="52">
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="52"/>
+      <c r="J8" t="s" s="54">
         <v>83</v>
       </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" ht="18.35" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" ht="18.35" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" ht="18.35" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" t="s" s="51">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" t="s" s="53">
         <v>84</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" ht="18.35" customHeight="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" ht="18.35" customHeight="1">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" ht="18.35" customHeight="1">
-      <c r="A14" s="36"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" t="s" s="49">
-        <v>20</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" t="s" s="51">
+        <v>19</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" ht="18.35" customHeight="1">
-      <c r="A15" s="36"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" ht="18.35" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" ht="18.5" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" t="s" s="51">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" t="s" s="53">
         <v>85</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="32"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" ht="18.5" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="32"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="31"/>
     </row>
     <row r="19" ht="18.35" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" ht="18.5" customHeight="1">
-      <c r="A20" s="36"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" t="s" s="51">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" t="s" s="53">
         <v>86</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" ht="18.5" customHeight="1">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" ht="18.5" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
     </row>
     <row r="23" ht="19.85" customHeight="1">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" t="s" s="51">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" t="s" s="53">
         <v>87</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
     </row>
     <row r="24" ht="18.5" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" ht="16.6" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" ht="24.45" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" t="s" s="51">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" t="s" s="53">
         <v>88</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
     </row>
     <row r="27" ht="18.8" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" ht="9.9" customHeight="1">
-      <c r="A28" s="36"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
     </row>
     <row r="29" ht="22.8" customHeight="1">
-      <c r="A29" s="36"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" t="s" s="51">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" t="s" s="53">
         <v>89</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
     </row>
     <row r="30" ht="18.5" customHeight="1">
-      <c r="A30" s="36"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" ht="18.5" customHeight="1">
-      <c r="A31" s="36"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
     </row>
     <row r="32" ht="33.3" customHeight="1">
-      <c r="A32" s="36"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" t="s" s="51">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" t="s" s="53">
         <v>90</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="36"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" ht="12.05" customHeight="1">
-      <c r="A34" s="36"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="36"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" t="s" s="51">
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" t="s" s="53">
         <v>91</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" ht="18.5" customHeight="1">
-      <c r="A36" s="36"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="32"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="37" ht="18.5" customHeight="1">
-      <c r="A37" s="36"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="32"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" ht="18.5" customHeight="1">
-      <c r="A38" s="36"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" t="s" s="51">
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" t="s" s="53">
         <v>92</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="32"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" ht="18.5" customHeight="1">
-      <c r="A39" s="36"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" ht="18.5" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" ht="18.5" customHeight="1">
-      <c r="A41" s="36"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" t="s" s="51">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" t="s" s="53">
         <v>93</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="32"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" ht="18.5" customHeight="1">
-      <c r="A42" s="36"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="32"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" ht="18.5" customHeight="1">
-      <c r="A43" s="36"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="32"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" ht="18.5" customHeight="1">
-      <c r="A44" s="36"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="32"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" ht="18.5" customHeight="1">
-      <c r="A45" s="36"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="32"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46" ht="18.5" customHeight="1">
-      <c r="A46" s="36"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="32"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" ht="18.5" customHeight="1">
-      <c r="A47" s="36"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" ht="18.5" customHeight="1">
-      <c r="A48" s="36"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="36"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50" ht="18.5" customHeight="1">
-      <c r="A50" s="36"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="32"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" ht="18.5" customHeight="1">
-      <c r="A51" s="36"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="32"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" ht="18.5" customHeight="1">
-      <c r="A52" s="36"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
     </row>
     <row r="53" ht="18.35" customHeight="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="32"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="31"/>
     </row>
     <row r="54" ht="18.35" customHeight="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="45"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="32"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="31"/>
     </row>
     <row r="55" ht="18.35" customHeight="1">
-      <c r="A55" s="36"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="32"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="31"/>
     </row>
     <row r="56" ht="18.35" customHeight="1">
-      <c r="A56" s="36"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="32"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="31"/>
     </row>
     <row r="57" ht="18.35" customHeight="1">
-      <c r="A57" s="36"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="32"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="31"/>
     </row>
     <row r="58" ht="18.35" customHeight="1">
-      <c r="A58" s="36"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="32"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="31"/>
     </row>
     <row r="59" ht="18.35" customHeight="1">
-      <c r="A59" s="36"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="55"/>
     </row>
     <row r="60" ht="18.35" customHeight="1">
-      <c r="A60" s="36"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
     </row>
     <row r="61" ht="18.35" customHeight="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="32"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="31"/>
     </row>
     <row r="62" ht="18.35" customHeight="1">
-      <c r="A62" s="36"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
     </row>
     <row r="63" ht="18.35" customHeight="1">
-      <c r="A63" s="36"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
     </row>
     <row r="64" ht="18.35" customHeight="1">
-      <c r="A64" s="36"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="55"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
     </row>
     <row r="65" ht="18.35" customHeight="1">
-      <c r="A65" s="36"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
     </row>
     <row r="66" ht="18.35" customHeight="1">
-      <c r="A66" s="36"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
     </row>
     <row r="67" ht="18.35" customHeight="1">
-      <c r="A67" s="36"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="32"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="55"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="31"/>
     </row>
     <row r="68" ht="18.35" customHeight="1">
-      <c r="A68" s="36"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
     </row>
     <row r="69" ht="18.35" customHeight="1">
-      <c r="A69" s="36"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="32"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="31"/>
     </row>
     <row r="70" ht="18.35" customHeight="1">
-      <c r="A70" s="36"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="32"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="55"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="31"/>
     </row>
     <row r="71" ht="18.35" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="32"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="31"/>
     </row>
     <row r="72" ht="18.35" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="32"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="31"/>
     </row>
     <row r="73" ht="18.35" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="32"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="31"/>
     </row>
     <row r="74" ht="18.35" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
     </row>
     <row r="75" ht="18.35" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
     </row>
     <row r="76" ht="18.35" customHeight="1">
-      <c r="A76" s="36"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="32"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="31"/>
     </row>
     <row r="77" ht="18.35" customHeight="1">
-      <c r="A77" s="36"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="53"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="32"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="55"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="31"/>
     </row>
     <row r="78" ht="18.35" customHeight="1">
-      <c r="A78" s="36"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="45"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="53"/>
-      <c r="J78" s="53"/>
-      <c r="K78" s="53"/>
-      <c r="L78" s="32"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="55"/>
+      <c r="K78" s="55"/>
+      <c r="L78" s="31"/>
     </row>
     <row r="79" ht="18.35" customHeight="1">
-      <c r="A79" s="36"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="53"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="55"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/6_1_要件定義.xlsx
+++ b/6_1_要件定義.xlsx
@@ -258,7 +258,7 @@
     <t>ログインする</t>
   </si>
   <si>
-    <t>ユーザー一覧を表示する</t>
+    <t>ユーザー一覧を確認する</t>
   </si>
   <si>
     <t>ログアウトする</t>
@@ -285,16 +285,16 @@
     <t>収支一覧を表示する</t>
   </si>
   <si>
-    <t>収支を計算する</t>
+    <t>収支結果を確認する</t>
   </si>
   <si>
     <t>目標を設定する</t>
   </si>
   <si>
-    <t>目標達成状況を判定する</t>
-  </si>
-  <si>
-    <t>収支グラフを表示する</t>
+    <t>目標達成状況を確認する</t>
+  </si>
+  <si>
+    <t>収支グラフを確認する</t>
   </si>
 </sst>
 </file>

--- a/6_1_要件定義.xlsx
+++ b/6_1_要件定義.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>マトリクス表（機能要件）</t>
   </si>
@@ -132,27 +132,6 @@
     <t>収入合計、支出合計、収支差額など</t>
   </si>
   <si>
-    <t>目標設定</t>
-  </si>
-  <si>
-    <t>月ごとの収支目標を設定する</t>
-  </si>
-  <si>
-    <t>目標情報</t>
-  </si>
-  <si>
-    <t>目標達成状況判定</t>
-  </si>
-  <si>
-    <t>目標の達成状況を判定し、表示する</t>
-  </si>
-  <si>
-    <t>目標情報、収支情報</t>
-  </si>
-  <si>
-    <t>達成率、達成状況（達成、未達成）など</t>
-  </si>
-  <si>
     <t>収支グラフ表示</t>
   </si>
   <si>
@@ -216,34 +195,36 @@
     <t>ユーザーアカウント削除の確認を行う</t>
   </si>
   <si>
-    <t>設定画面</t>
-  </si>
-  <si>
     <t>ユーザー一覧画面</t>
   </si>
   <si>
     <t>管理者用</t>
   </si>
   <si>
+    <t>円グラフで収支表示</t>
+  </si>
+  <si>
     <t>収支入力画面</t>
   </si>
   <si>
+    <t>収入または支出の情報を入力する、また収支削除も行う</t>
+  </si>
+  <si>
     <t>メイン画面、収支一覧画面</t>
   </si>
   <si>
     <t>収支編集画面</t>
   </si>
   <si>
+    <t>入力済みの収支情報を編集する +削除も可能</t>
+  </si>
+  <si>
     <t>収支一覧画面</t>
   </si>
   <si>
-    <t>目標設定画面</t>
-  </si>
-  <si>
-    <t>収支グラフ表示画面</t>
-  </si>
-  <si>
-    <t>グラフの種類を選択可能</t>
+    <t>収入と支出の一覧を表示する +収支計算も表示する</t>
   </si>
   <si>
     <t>カテゴリ管理画面</t>
@@ -286,12 +267,6 @@
   </si>
   <si>
     <t>収支結果を確認する</t>
-  </si>
-  <si>
-    <t>目標を設定する</t>
-  </si>
-  <si>
-    <t>目標達成状況を確認する</t>
   </si>
   <si>
     <t>収支グラフを確認する</t>
@@ -581,7 +556,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -642,12 +617,12 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -659,9 +634,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -888,7 +860,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1389618</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104894</xdr:rowOff>
+      <xdr:rowOff>104895</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -898,7 +870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4879340" y="1619883"/>
-          <a:ext cx="1488679" cy="449701"/>
+          <a:ext cx="1488679" cy="449703"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1339,98 +1311,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1145540</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>120242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1389618</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>147308</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4879340" y="8695282"/>
-          <a:ext cx="1488679" cy="496967"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1145540</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>96380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1389618</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123446</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="楕円"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4879340" y="9376270"/>
-          <a:ext cx="1488679" cy="496967"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1188958</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -1444,7 +1324,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="楕円"/>
+        <xdr:cNvPr id="14" name="楕円"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1490,13 +1370,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="楕円"/>
+        <xdr:cNvPr id="15" name="楕円"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11281499" y="921364"/>
-          <a:ext cx="1488679" cy="449701"/>
+          <a:off x="11281498" y="921364"/>
+          <a:ext cx="1488680" cy="449701"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1536,7 +1416,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="線"/>
+        <xdr:cNvPr id="16" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1578,17 +1458,17 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1128349</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>108599</xdr:rowOff>
+      <xdr:rowOff>108598</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="線"/>
+        <xdr:cNvPr id="17" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2605450" y="1170924"/>
-          <a:ext cx="2256700" cy="669321"/>
+          <a:ext cx="2256699" cy="669320"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1628,7 +1508,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="線"/>
+        <xdr:cNvPr id="18" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1674,7 +1554,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="線"/>
+        <xdr:cNvPr id="19" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1710,7 +1590,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>372147</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>163802</xdr:rowOff>
+      <xdr:rowOff>163803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -1720,13 +1600,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="線"/>
+        <xdr:cNvPr id="20" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2861347" y="1429357"/>
-          <a:ext cx="2000378" cy="2482906"/>
+          <a:off x="2861347" y="1429358"/>
+          <a:ext cx="2000379" cy="2482905"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1766,7 +1646,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="線"/>
+        <xdr:cNvPr id="21" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1812,7 +1692,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="線"/>
+        <xdr:cNvPr id="22" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1848,7 +1728,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>129474</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>140269</xdr:rowOff>
+      <xdr:rowOff>140268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -1858,13 +1738,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="線"/>
+        <xdr:cNvPr id="23" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2618674" y="1172779"/>
-          <a:ext cx="2249680" cy="4860422"/>
+          <a:off x="2618674" y="1172778"/>
+          <a:ext cx="2249680" cy="4860423"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1904,7 +1784,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="線"/>
+        <xdr:cNvPr id="24" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1938,25 +1818,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>257182</xdr:colOff>
+      <xdr:colOff>257181</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1116597</xdr:colOff>
+      <xdr:colOff>1116596</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>101109</xdr:rowOff>
+      <xdr:rowOff>101110</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="線"/>
+        <xdr:cNvPr id="25" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2746382" y="1211583"/>
-          <a:ext cx="2104016" cy="6258702"/>
+          <a:off x="2746381" y="1211583"/>
+          <a:ext cx="2104016" cy="6258703"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1984,7 +1864,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>241940</xdr:colOff>
+      <xdr:colOff>241939</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>8882</xdr:rowOff>
     </xdr:from>
@@ -1996,105 +1876,13 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="線"/>
+        <xdr:cNvPr id="26" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2731140" y="1274437"/>
-          <a:ext cx="2134500" cy="6910897"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>132247</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>178805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1131780</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>216163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2621447" y="1211315"/>
-          <a:ext cx="2244134" cy="7579889"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>148794</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>8607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1115233</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12315</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2637994" y="1274162"/>
-          <a:ext cx="2211040" cy="8252994"/>
+          <a:off x="2731139" y="1274437"/>
+          <a:ext cx="2134501" cy="6910897"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2134,7 +1922,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="線"/>
+        <xdr:cNvPr id="27" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2180,7 +1968,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="線"/>
+        <xdr:cNvPr id="28" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2220,18 +2008,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1235250</xdr:colOff>
+      <xdr:colOff>1235249</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>148658</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="線"/>
+        <xdr:cNvPr id="29" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6382684" y="1259967"/>
+          <a:off x="6382683" y="1259967"/>
           <a:ext cx="2485267" cy="3420687"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2260,25 +2048,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1407746</xdr:colOff>
+      <xdr:colOff>1407745</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1224162</xdr:colOff>
+      <xdr:colOff>1224161</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>105675</xdr:rowOff>
+      <xdr:rowOff>105676</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="線"/>
+        <xdr:cNvPr id="30" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6386146" y="1270824"/>
-          <a:ext cx="2470717" cy="4071697"/>
+          <a:off x="6386145" y="1270824"/>
+          <a:ext cx="2470716" cy="4071697"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2308,23 +2096,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>30436</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>4855</xdr:rowOff>
+      <xdr:rowOff>4854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1224036</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>98258</xdr:rowOff>
+      <xdr:rowOff>98259</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="線"/>
+        <xdr:cNvPr id="31" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6418536" y="1270410"/>
-          <a:ext cx="2438201" cy="4762559"/>
+          <a:off x="6418536" y="1270409"/>
+          <a:ext cx="2438201" cy="4762561"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2364,7 +2152,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="線"/>
+        <xdr:cNvPr id="32" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2400,23 +2188,23 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1408265</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>223420</xdr:rowOff>
+      <xdr:rowOff>223419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1061617</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>56764</xdr:rowOff>
+      <xdr:rowOff>56765</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="線"/>
+        <xdr:cNvPr id="33" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6386665" y="1255930"/>
-          <a:ext cx="2307653" cy="6170010"/>
+          <a:off x="6386665" y="1255929"/>
+          <a:ext cx="2307653" cy="6170012"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2446,115 +2234,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>62970</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>49508</xdr:rowOff>
+      <xdr:rowOff>49507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1125858</xdr:colOff>
+      <xdr:colOff>1125857</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>37796</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="線"/>
+        <xdr:cNvPr id="34" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6451070" y="1315063"/>
-          <a:ext cx="2307489" cy="6829779"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1383698</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>120252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76923</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>131715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6362098" y="1385807"/>
-          <a:ext cx="2592126" cy="7555899"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1341370</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12557</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>108052</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="線"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6319770" y="1269423"/>
-          <a:ext cx="2570088" cy="8353470"/>
+          <a:off x="6451070" y="1315062"/>
+          <a:ext cx="2307488" cy="6829780"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2582,24 +2278,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>194827</xdr:colOff>
+      <xdr:colOff>194826</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>115691</xdr:rowOff>
+      <xdr:rowOff>116961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1146899</xdr:colOff>
+      <xdr:colOff>1146898</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>115691</xdr:rowOff>
+      <xdr:rowOff>116961</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="線"/>
+        <xdr:cNvPr id="35" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="10316727" y="1148201"/>
+          <a:off x="10316726" y="1149471"/>
           <a:ext cx="952073" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2636,17 +2332,17 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>159077</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104894</xdr:rowOff>
+      <xdr:rowOff>104895</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="楕円"/>
+        <xdr:cNvPr id="36" name="楕円"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11281499" y="1619883"/>
-          <a:ext cx="1488679" cy="449701"/>
+          <a:off x="11281498" y="1619883"/>
+          <a:ext cx="1488680" cy="449703"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2686,7 +2382,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="線"/>
+        <xdr:cNvPr id="37" name="線"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3782,12 +3478,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.5391" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6016" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.6016" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.8125" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.4219" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.4219" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.2734" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.2109" style="1" customWidth="1"/>
     <col min="7" max="16384" width="19.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4036,12 +3732,14 @@
         <v>40</v>
       </c>
       <c r="D14" t="s" s="14">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" t="s" s="14">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" ht="24.3" customHeight="1">
       <c r="A15" s="9">
@@ -4056,52 +3754,28 @@
       <c r="D15" t="s" s="10">
         <v>44</v>
       </c>
-      <c r="E15" t="s" s="11">
-        <v>10</v>
+      <c r="E15" t="s" s="20">
+        <v>24</v>
       </c>
       <c r="F15" t="s" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="16" ht="24.3" customHeight="1">
-      <c r="A16" s="13">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="14">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s" s="15">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s" s="14">
-        <v>48</v>
-      </c>
+      <c r="A16" s="21"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" ht="18.35" customHeight="1">
-      <c r="A17" s="20">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s" s="21">
-        <v>24</v>
-      </c>
-      <c r="F17" t="s" s="10">
-        <v>52</v>
-      </c>
+      <c r="A17" s="22"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" ht="18.35" customHeight="1">
       <c r="A18" s="22"/>
@@ -4128,10 +3802,10 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" ht="18.35" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="16"/>
       <c r="F21" s="23"/>
     </row>
@@ -4149,23 +3823,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.7188" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.6016" style="28" customWidth="1"/>
-    <col min="3" max="3" width="28.8125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="25.4219" style="28" customWidth="1"/>
-    <col min="5" max="5" width="29.5547" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="19.6016" style="28" customWidth="1"/>
+    <col min="1" max="1" width="10.8125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.6016" style="27" customWidth="1"/>
+    <col min="3" max="3" width="28.8125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="25.4219" style="27" customWidth="1"/>
+    <col min="5" max="5" width="29.6016" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="19.6016" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="29">
-        <v>53</v>
+      <c r="A1" t="s" s="28">
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4177,13 +3851,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s" s="6">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s" s="6">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s" s="8">
         <v>6</v>
@@ -4194,13 +3868,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s" s="10">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="10">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s" s="10">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4209,13 +3883,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s" s="14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="14">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s" s="14">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="16"/>
     </row>
@@ -4224,13 +3898,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="10">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s" s="10">
         <v>15</v>
       </c>
       <c r="D5" t="s" s="10">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -4239,13 +3913,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="14">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s" s="14">
         <v>19</v>
       </c>
       <c r="D6" t="s" s="14">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E6" s="16"/>
     </row>
@@ -4254,13 +3928,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s" s="10">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -4269,134 +3943,129 @@
         <v>6</v>
       </c>
       <c r="B8" t="s" s="14">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="14">
         <v>23</v>
       </c>
       <c r="D8" t="s" s="14">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s" s="14">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" ht="18.3" customHeight="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" ht="32.15" customHeight="1">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" t="s" s="10">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" ht="18.3" customHeight="1">
+    <row r="10" ht="32.15" customHeight="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>73</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" ht="36.3" customHeight="1">
+      <c r="B10" t="s" s="10">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s" s="10">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="24" customHeight="1">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" ht="18.3" customHeight="1">
+      <c r="B11" t="s" s="14">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s" s="14">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s" s="14">
+        <v>68</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="36.3" customHeight="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="14">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s" s="14">
-        <v>62</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" ht="24.3" customHeight="1">
+      <c r="B12" t="s" s="10">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s" s="10">
+        <v>55</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" ht="18.3" customHeight="1">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="10">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" ht="18.3" customHeight="1">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="14">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s" s="14">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s" s="14">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s" s="14">
-        <v>69</v>
-      </c>
+      <c r="B13" t="s" s="14">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s" s="14">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="24.3" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" ht="18.3" customHeight="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" ht="18.3" customHeight="1">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" ht="18.3" customHeight="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" ht="18.3" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4421,1155 +4090,1151 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="23" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="19.6016" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.2109" style="32" customWidth="1"/>
-    <col min="6" max="12" width="19.6016" style="32" customWidth="1"/>
-    <col min="13" max="16384" width="19.6016" style="32" customWidth="1"/>
+    <col min="1" max="4" width="19.6016" style="31" customWidth="1"/>
+    <col min="5" max="5" width="22.2109" style="31" customWidth="1"/>
+    <col min="6" max="12" width="19.6016" style="31" customWidth="1"/>
+    <col min="13" max="16384" width="19.6016" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.95" customHeight="1">
-      <c r="A1" t="s" s="33">
-        <v>78</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
+      <c r="A1" t="s" s="32">
+        <v>71</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" ht="18.5" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" t="s" s="40">
-        <v>79</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="A3" s="38"/>
+      <c r="B3" t="s" s="39">
+        <v>72</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
     </row>
     <row r="4" ht="18.35" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="5" ht="18.35" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" t="s" s="49">
+      <c r="A5" s="44"/>
+      <c r="B5" t="s" s="48">
         <v>17</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" t="s" s="50">
-        <v>80</v>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" t="s" s="49">
+        <v>73</v>
       </c>
       <c r="F5" s="23"/>
-      <c r="G5" s="31"/>
-      <c r="H5" t="s" s="51">
+      <c r="G5" s="30"/>
+      <c r="H5" t="s" s="50">
         <v>24</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" t="s" s="51">
-        <v>81</v>
-      </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="I5" s="51"/>
+      <c r="J5" t="s" s="50">
+        <v>74</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" ht="18.35" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="47"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" ht="18.35" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" ht="18.35" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" t="s" s="53">
-        <v>82</v>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" t="s" s="52">
+        <v>75</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="52"/>
-      <c r="J8" t="s" s="54">
-        <v>83</v>
-      </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="51"/>
+      <c r="J8" t="s" s="53">
+        <v>76</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" ht="18.35" customHeight="1">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="47"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" ht="18.35" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="47"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" ht="18.35" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" t="s" s="53">
-        <v>84</v>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" t="s" s="52">
+        <v>77</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" ht="18.35" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="47"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" ht="18.35" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="47"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" ht="18.35" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" t="s" s="51">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" t="s" s="50">
         <v>19</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" ht="18.35" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" ht="18.35" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="47"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" ht="18.5" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" t="s" s="53">
-        <v>85</v>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" t="s" s="52">
+        <v>78</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="31"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" ht="18.5" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="31"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="30"/>
     </row>
     <row r="19" ht="18.35" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" ht="18.5" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" t="s" s="53">
-        <v>86</v>
+      <c r="A20" s="44"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" t="s" s="52">
+        <v>79</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
     </row>
     <row r="21" ht="18.5" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
     </row>
     <row r="22" ht="18.5" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" ht="19.85" customHeight="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" t="s" s="53">
-        <v>87</v>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" t="s" s="52">
+        <v>80</v>
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
     </row>
     <row r="24" ht="18.5" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" ht="16.6" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="47"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
     </row>
     <row r="26" ht="24.45" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" t="s" s="53">
-        <v>88</v>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" t="s" s="52">
+        <v>81</v>
       </c>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
     </row>
     <row r="27" ht="18.8" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" ht="9.9" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="47"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" ht="22.8" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" t="s" s="53">
-        <v>89</v>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" t="s" s="52">
+        <v>82</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
     </row>
     <row r="30" ht="18.5" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="31" ht="18.5" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="47"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
     </row>
     <row r="32" ht="33.3" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" t="s" s="53">
-        <v>90</v>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" t="s" s="52">
+        <v>83</v>
       </c>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="47"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
     </row>
     <row r="34" ht="12.05" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="47"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
     </row>
     <row r="35" ht="18.35" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" t="s" s="53">
-        <v>91</v>
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" t="s" s="52">
+        <v>84</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" ht="18.5" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="47"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" ht="18.5" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="47"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="31"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="30"/>
     </row>
     <row r="38" ht="18.5" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" t="s" s="53">
-        <v>92</v>
-      </c>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="30"/>
     </row>
     <row r="39" ht="18.5" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="47"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
     </row>
     <row r="40" ht="18.5" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="47"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" ht="18.5" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" t="s" s="53">
-        <v>93</v>
-      </c>
+      <c r="A41" s="44"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="31"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" ht="18.5" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="47"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="31"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" ht="18.5" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="47"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="31"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" ht="18.5" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="47"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="31"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" ht="18.5" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="47"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="31"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="30"/>
     </row>
     <row r="46" ht="18.5" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="47"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="31"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="30"/>
     </row>
     <row r="47" ht="18.5" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="47"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
     </row>
     <row r="48" ht="18.5" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="47"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
     </row>
     <row r="49" ht="18.35" customHeight="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="47"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" ht="18.5" customHeight="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="47"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="31"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" ht="18.5" customHeight="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="47"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="31"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" ht="18.5" customHeight="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="47"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
     </row>
     <row r="53" ht="18.35" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="47"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="31"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" ht="18.35" customHeight="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="47"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="55"/>
-      <c r="L54" s="31"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" ht="18.35" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="47"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="31"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" ht="18.35" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="47"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="31"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" ht="18.35" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="47"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="31"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" ht="18.35" customHeight="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="47"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="31"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="30"/>
     </row>
     <row r="59" ht="18.35" customHeight="1">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="47"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
     </row>
     <row r="60" ht="18.35" customHeight="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="47"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
     </row>
     <row r="61" ht="18.35" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="47"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="31"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" ht="18.35" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="47"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
     </row>
     <row r="63" ht="18.35" customHeight="1">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="47"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
     </row>
     <row r="64" ht="18.35" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="47"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" ht="18.35" customHeight="1">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="47"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" ht="18.35" customHeight="1">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="47"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" ht="18.35" customHeight="1">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="47"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="31"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" ht="18.35" customHeight="1">
-      <c r="A68" s="45"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" ht="18.35" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="47"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="31"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="30"/>
     </row>
     <row r="70" ht="18.35" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="47"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="31"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="30"/>
     </row>
     <row r="71" ht="18.35" customHeight="1">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="47"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
-      <c r="L71" s="31"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" ht="18.35" customHeight="1">
-      <c r="A72" s="45"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="47"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
-      <c r="L72" s="31"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="30"/>
     </row>
     <row r="73" ht="18.35" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="47"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="46"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
-      <c r="L73" s="31"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="30"/>
     </row>
     <row r="74" ht="18.35" customHeight="1">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="47"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="46"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
     </row>
     <row r="75" ht="18.35" customHeight="1">
-      <c r="A75" s="45"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="47"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="46"/>
       <c r="F75" s="23"/>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
     </row>
     <row r="76" ht="18.35" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="47"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="23"/>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="31"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="54"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="30"/>
     </row>
     <row r="77" ht="18.35" customHeight="1">
-      <c r="A77" s="45"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="47"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="31"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="30"/>
     </row>
     <row r="78" ht="18.35" customHeight="1">
-      <c r="A78" s="45"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="47"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="31"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="30"/>
     </row>
     <row r="79" ht="18.35" customHeight="1">
-      <c r="A79" s="45"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="47"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
